--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_10_37.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_10_37.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3444188.446443412</v>
+        <v>3552830.607746227</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12443012.75936921</v>
+        <v>12383593.4843585</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283175</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7815105.34783716</v>
+        <v>7820598.993825576</v>
       </c>
     </row>
     <row r="11">
@@ -662,10 +664,10 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
@@ -677,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -716,10 +718,10 @@
         <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>26.50916771905592</v>
       </c>
       <c r="W2" t="n">
-        <v>282.7928953124206</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -756,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -814,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -823,10 +825,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>28.52084334158163</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.3066000448042</v>
@@ -865,7 +867,7 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>184.4532738350405</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -877,7 +879,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -902,16 +904,16 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>11.54770277295399</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>80.76926157008685</v>
       </c>
       <c r="I5" t="n">
         <v>65.70991267247049</v>
@@ -947,16 +949,16 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>232.0161212872579</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -1051,22 +1053,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1102,10 +1104,10 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>25.95777670103177</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2271541212006</v>
@@ -1114,7 +1116,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>60.30119086557715</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1133,25 +1135,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>125.0132180293231</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>143.2011581751662</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1224,13 +1226,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>134.9994691657081</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,16 +1259,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414547</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T9" t="n">
-        <v>190.7165703189231</v>
+        <v>192.0665623188214</v>
       </c>
       <c r="U9" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8092030868072</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1291,10 +1293,10 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1303,10 +1305,10 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1339,13 +1341,13 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>139.1208591572352</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1354,7 +1356,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>128.2395458897342</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1367,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634804</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710074</v>
@@ -1376,13 +1378,13 @@
         <v>354.6830416206828</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417113</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187856</v>
+        <v>409.8033385187865</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444136</v>
@@ -1418,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695513</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576159</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701347</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174128</v>
+        <v>349.2409687174129</v>
       </c>
       <c r="X11" t="n">
         <v>369.7311006784689</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560534</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="12">
@@ -1464,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1525,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819371</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1534,7 +1536,7 @@
         <v>148.6154730182122</v>
       </c>
       <c r="E13" t="n">
-        <v>146.433962646569</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229311</v>
@@ -1543,10 +1545,10 @@
         <v>165.5241382922687</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>54.84205284514031</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856536</v>
+        <v>81.26583631856541</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012152</v>
+        <v>66.37524671012156</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016444</v>
+        <v>181.0262860016445</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272881</v>
@@ -1585,10 +1587,10 @@
         <v>286.184474389244</v>
       </c>
       <c r="V13" t="n">
-        <v>252.1376433238278</v>
+        <v>252.1376433238279</v>
       </c>
       <c r="W13" t="n">
-        <v>15.09910835322612</v>
+        <v>286.5229983365909</v>
       </c>
       <c r="X13" t="n">
         <v>225.709655389037</v>
@@ -1619,7 +1621,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1670,7 +1672,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1762,16 +1764,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819371</v>
+        <v>179.8319801819372</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986277</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182122</v>
       </c>
       <c r="E16" t="n">
-        <v>0.6324680438249902</v>
+        <v>146.433962646569</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229311</v>
@@ -1783,7 +1785,7 @@
         <v>140.2947128462237</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856536</v>
+        <v>81.26583631856539</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012152</v>
+        <v>66.37524671012154</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016445</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272881</v>
@@ -1822,13 +1824,13 @@
         <v>286.184474389244</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.1376433238279</v>
       </c>
       <c r="W16" t="n">
-        <v>286.5229983365908</v>
+        <v>100.5140508960389</v>
       </c>
       <c r="X16" t="n">
-        <v>225.709655389037</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520946</v>
@@ -1844,22 +1846,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710074</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417113</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187865</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444146</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695516</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576159</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -1999,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819371</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986277</v>
+        <v>53.07327741456311</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182122</v>
@@ -2020,7 +2022,7 @@
         <v>140.2947128462237</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856539</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012152</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016445</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272881</v>
       </c>
       <c r="U19" t="n">
-        <v>186.9166231085255</v>
+        <v>286.184474389244</v>
       </c>
       <c r="V19" t="n">
-        <v>252.1376433238278</v>
+        <v>252.1376433238279</v>
       </c>
       <c r="W19" t="n">
-        <v>286.5229983365908</v>
+        <v>286.5229983365909</v>
       </c>
       <c r="X19" t="n">
         <v>225.709655389037</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520946</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2129,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2236,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819371</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986277</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229311</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922687</v>
+        <v>25.52471385612643</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462237</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856536</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012152</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272881</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>183.2947721274523</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>252.1376433238278</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.5229983365908</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.709655389037</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520946</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2473,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>78.71385496658421</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986277</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182122</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.433962646569</v>
+        <v>99.97427419833861</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229311</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922687</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462237</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856536</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012152</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016444</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272881</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.184474389244</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.5229983365908</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520946</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2552,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634807</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2606,7 +2608,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2615,13 +2617,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560537</v>
       </c>
     </row>
     <row r="27">
@@ -2710,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819374</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>167.246821098628</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>148.6154730182125</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>146.4339626465693</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>145.4210480229314</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>131.2944603446586</v>
+        <v>140.294712846224</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856568</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012183</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016447</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272884</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892443</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>125.219356024465</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>225.7096553890373</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520949</v>
       </c>
     </row>
     <row r="29">
@@ -2789,25 +2791,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634807</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710077</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206831</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722619</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417116</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187853</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,25 +2842,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695544</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576162</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560537</v>
       </c>
     </row>
     <row r="30">
@@ -2947,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>65.06198119183939</v>
+        <v>179.8319801819374</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>148.6154730182125</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>146.4339626465693</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>145.4210480229314</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.524138292269</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856568</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272884</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>286.1844743892443</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>228.1152860522232</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365911</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>225.7096553890373</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520949</v>
       </c>
     </row>
     <row r="32">
@@ -3184,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819374</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>28.75188085811813</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>165.524138292269</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>140.294712846224</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856568</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012183</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016447</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4054503272884</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>286.1844743892443</v>
       </c>
       <c r="V34" t="n">
-        <v>2.813978415465053</v>
+        <v>252.1376433238281</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365911</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>225.7096553890373</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520949</v>
       </c>
     </row>
     <row r="35">
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3326,7 +3328,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3427,7 +3429,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -3478,7 +3480,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>175.9612165073978</v>
+        <v>27.34574348918551</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3509,13 +3511,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3661,25 +3663,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>119.8264588081768</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>102.1557845699813</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3712,7 +3714,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3803,7 +3805,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3901,7 +3903,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -3910,7 +3912,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3946,7 +3948,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -3958,13 +3960,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>215.0524136249015</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>126.464366564012</v>
       </c>
     </row>
     <row r="44">
@@ -4141,19 +4143,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4195,13 +4197,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>137.9385224935183</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4304,40 +4306,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>926.0589393552734</v>
+        <v>832.1627361996682</v>
       </c>
       <c r="C2" t="n">
-        <v>926.0589393552734</v>
+        <v>832.1627361996682</v>
       </c>
       <c r="D2" t="n">
-        <v>926.0589393552734</v>
+        <v>473.8970375929177</v>
       </c>
       <c r="E2" t="n">
-        <v>540.2706867570292</v>
+        <v>473.8970375929177</v>
       </c>
       <c r="F2" t="n">
-        <v>533.3251860078258</v>
+        <v>466.9515368437143</v>
       </c>
       <c r="G2" t="n">
-        <v>117.6204357321147</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H2" t="n">
-        <v>117.6204357321147</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L2" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4355,25 +4357,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2437.640120926626</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T2" t="n">
-        <v>2228.894479532451</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U2" t="n">
-        <v>1975.31341879663</v>
+        <v>1975.313418796629</v>
       </c>
       <c r="V2" t="n">
-        <v>1975.31341879663</v>
+        <v>1948.536481706674</v>
       </c>
       <c r="W2" t="n">
-        <v>1689.664029592165</v>
+        <v>1595.76782643656</v>
       </c>
       <c r="X2" t="n">
-        <v>1316.198271331085</v>
+        <v>1222.30206817548</v>
       </c>
       <c r="Y2" t="n">
-        <v>926.0589393552734</v>
+        <v>832.1627361996682</v>
       </c>
     </row>
     <row r="3">
@@ -4389,40 +4391,40 @@
         <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488047</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182518</v>
       </c>
       <c r="H3" t="n">
         <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500114</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310614</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L3" t="n">
-        <v>870.329241545892</v>
+        <v>593.0223835625329</v>
       </c>
       <c r="M3" t="n">
-        <v>1233.591260505112</v>
+        <v>1165.206974733667</v>
       </c>
       <c r="N3" t="n">
-        <v>1867.770244284151</v>
+        <v>1552.492103330613</v>
       </c>
       <c r="O3" t="n">
-        <v>2199.840679460312</v>
+        <v>1884.562538506774</v>
       </c>
       <c r="P3" t="n">
         <v>2447.023413292609</v>
@@ -4440,7 +4442,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>504.0139700109311</v>
+        <v>1547.988193166235</v>
       </c>
       <c r="C4" t="n">
-        <v>504.0139700109311</v>
+        <v>1547.988193166235</v>
       </c>
       <c r="D4" t="n">
-        <v>353.8973305985954</v>
+        <v>1397.8715537539</v>
       </c>
       <c r="E4" t="n">
-        <v>325.0883979303312</v>
+        <v>1397.8715537539</v>
       </c>
       <c r="F4" t="n">
-        <v>325.0883979303312</v>
+        <v>1250.981606255989</v>
       </c>
       <c r="G4" t="n">
-        <v>157.1019332386097</v>
+        <v>1082.995141564268</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1019332386097</v>
+        <v>1082.995141564268</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800311</v>
+        <v>977.1399948936613</v>
       </c>
       <c r="J4" t="n">
-        <v>76.715959553122</v>
+        <v>1002.60916787878</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020476</v>
+        <v>1174.299679627706</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693235</v>
+        <v>1449.530858294981</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096588</v>
+        <v>1750.112669035317</v>
       </c>
       <c r="N4" t="n">
-        <v>1123.088724245823</v>
+        <v>2048.981932571481</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999035</v>
+        <v>2309.019775324693</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171024</v>
+        <v>2508.006390496681</v>
       </c>
       <c r="Q4" t="n">
-        <v>1636.446120074497</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R4" t="n">
-        <v>1533.86271359008</v>
+        <v>2459.755921915737</v>
       </c>
       <c r="S4" t="n">
-        <v>1337.233965749941</v>
+        <v>2273.439483698524</v>
       </c>
       <c r="T4" t="n">
-        <v>1337.233965749941</v>
+        <v>2273.439483698524</v>
       </c>
       <c r="U4" t="n">
-        <v>1048.115628253779</v>
+        <v>1984.321146202362</v>
       </c>
       <c r="V4" t="n">
-        <v>793.4311400478917</v>
+        <v>1729.636657996475</v>
       </c>
       <c r="W4" t="n">
-        <v>504.0139700109311</v>
+        <v>1729.636657996475</v>
       </c>
       <c r="X4" t="n">
-        <v>504.0139700109311</v>
+        <v>1729.636657996475</v>
       </c>
       <c r="Y4" t="n">
-        <v>504.0139700109311</v>
+        <v>1729.636657996475</v>
       </c>
     </row>
     <row r="5">
@@ -4541,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>844.329830759459</v>
+        <v>603.6036480119269</v>
       </c>
       <c r="C5" t="n">
-        <v>844.329830759459</v>
+        <v>603.6036480119269</v>
       </c>
       <c r="D5" t="n">
-        <v>844.329830759459</v>
+        <v>603.6036480119269</v>
       </c>
       <c r="E5" t="n">
-        <v>844.329830759459</v>
+        <v>217.8153954136827</v>
       </c>
       <c r="F5" t="n">
-        <v>433.3439259698515</v>
+        <v>210.8698946644792</v>
       </c>
       <c r="G5" t="n">
-        <v>421.6795797345444</v>
+        <v>199.2055484291722</v>
       </c>
       <c r="H5" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J5" t="n">
         <v>187.5281822362822</v>
@@ -4592,25 +4594,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926626</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T5" t="n">
-        <v>2228.89447953245</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="U5" t="n">
-        <v>2228.89447953245</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="V5" t="n">
-        <v>2228.89447953245</v>
+        <v>2106.577233583054</v>
       </c>
       <c r="W5" t="n">
-        <v>1994.534761060472</v>
+        <v>1753.80857831294</v>
       </c>
       <c r="X5" t="n">
-        <v>1621.069002799393</v>
+        <v>1380.34282005186</v>
       </c>
       <c r="Y5" t="n">
-        <v>1230.929670823581</v>
+        <v>990.2034880760486</v>
       </c>
     </row>
     <row r="6">
@@ -4638,34 +4640,34 @@
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057902</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J6" t="n">
         <v>113.5972052500113</v>
       </c>
       <c r="K6" t="n">
-        <v>483.0441129489465</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L6" t="n">
-        <v>1117.223096727985</v>
+        <v>593.0223835625329</v>
       </c>
       <c r="M6" t="n">
-        <v>1480.485115687205</v>
+        <v>1140.868925009994</v>
       </c>
       <c r="N6" t="n">
-        <v>1867.77024428415</v>
+        <v>1528.154053606939</v>
       </c>
       <c r="O6" t="n">
-        <v>2199.840679460312</v>
+        <v>1860.224488783101</v>
       </c>
       <c r="P6" t="n">
-        <v>2447.023413292609</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q6" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R6" t="n">
         <v>2562.339328400155</v>
@@ -4699,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>326.0381161665167</v>
+        <v>622.0949848405774</v>
       </c>
       <c r="C7" t="n">
-        <v>157.1019332386098</v>
+        <v>622.0949848405774</v>
       </c>
       <c r="D7" t="n">
-        <v>157.1019332386098</v>
+        <v>471.9783454282416</v>
       </c>
       <c r="E7" t="n">
-        <v>157.1019332386098</v>
+        <v>471.9783454282416</v>
       </c>
       <c r="F7" t="n">
-        <v>157.1019332386098</v>
+        <v>325.0883979303312</v>
       </c>
       <c r="G7" t="n">
         <v>157.1019332386098</v>
@@ -4720,10 +4722,10 @@
         <v>157.1019332386098</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K7" t="n">
         <v>248.4064713020475</v>
@@ -4750,25 +4752,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1610.226143608808</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T7" t="n">
-        <v>1387.247662803544</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U7" t="n">
-        <v>1098.129325307382</v>
+        <v>1347.327782578335</v>
       </c>
       <c r="V7" t="n">
-        <v>843.4448371014946</v>
+        <v>1092.643294372448</v>
       </c>
       <c r="W7" t="n">
-        <v>554.0276670645341</v>
+        <v>1031.733000568835</v>
       </c>
       <c r="X7" t="n">
-        <v>326.0381161665167</v>
+        <v>803.7434496708171</v>
       </c>
       <c r="Y7" t="n">
-        <v>326.0381161665167</v>
+        <v>803.7434496708171</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2102.48089954095</v>
+        <v>1245.791627622475</v>
       </c>
       <c r="C8" t="n">
-        <v>1976.204921733553</v>
+        <v>876.8291106820636</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>518.5634120753132</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>373.9157775549433</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>366.9702768057398</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810562</v>
+        <v>442.5171852816075</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136266</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="U8" t="n">
-        <v>3215.315153136266</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="V8" t="n">
-        <v>3215.315153136266</v>
+        <v>2022.530799662409</v>
       </c>
       <c r="W8" t="n">
-        <v>2862.546497866152</v>
+        <v>2022.530799662409</v>
       </c>
       <c r="X8" t="n">
-        <v>2489.080739605072</v>
+        <v>2022.530799662409</v>
       </c>
       <c r="Y8" t="n">
-        <v>2489.080739605072</v>
+        <v>1632.391467686597</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064537</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>801.9449557744472</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1165.206974733667</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1552.492103330613</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>1884.562538506774</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>380.4321398396067</v>
+        <v>519.0385070447395</v>
       </c>
       <c r="C10" t="n">
-        <v>380.4321398396067</v>
+        <v>350.1023241168326</v>
       </c>
       <c r="D10" t="n">
-        <v>380.4321398396067</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="E10" t="n">
-        <v>380.4321398396067</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="F10" t="n">
-        <v>380.4321398396067</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="G10" t="n">
-        <v>212.7293032143257</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J10" t="n">
-        <v>111.634748879119</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764914</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581905</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1617.076751502319</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P10" t="n">
-        <v>1849.684251935978</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088493</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1735.608663915319</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T10" t="n">
-        <v>1513.842048484845</v>
+        <v>1413.467639269233</v>
       </c>
       <c r="U10" t="n">
-        <v>1373.315928124002</v>
+        <v>1413.467639269233</v>
       </c>
       <c r="V10" t="n">
-        <v>1118.631439918115</v>
+        <v>1158.783151063346</v>
       </c>
       <c r="W10" t="n">
-        <v>829.2142698811541</v>
+        <v>869.365981026385</v>
       </c>
       <c r="X10" t="n">
-        <v>601.2247189831368</v>
+        <v>739.8310861882696</v>
       </c>
       <c r="Y10" t="n">
-        <v>380.4321398396067</v>
+        <v>519.0385070447395</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.77365361686</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362684</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192684</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111726</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075825</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.61155333239</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014781</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355939</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
         <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615995</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5103,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K12" t="n">
-        <v>245.2306927803938</v>
+        <v>427.7414352191924</v>
       </c>
       <c r="L12" t="n">
-        <v>740.5562989961525</v>
+        <v>427.7414352191924</v>
       </c>
       <c r="M12" t="n">
-        <v>1337.934786622704</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N12" t="n">
-        <v>1337.934786622704</v>
+        <v>1652.71788640035</v>
       </c>
       <c r="O12" t="n">
-        <v>1889.844516861991</v>
+        <v>2204.627616639637</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>788.0191461778167</v>
+        <v>695.5020655703131</v>
       </c>
       <c r="C13" t="n">
-        <v>788.0191461778167</v>
+        <v>695.5020655703131</v>
       </c>
       <c r="D13" t="n">
-        <v>637.9025067654811</v>
+        <v>545.3854261579775</v>
       </c>
       <c r="E13" t="n">
-        <v>489.9894131830882</v>
+        <v>545.3854261579775</v>
       </c>
       <c r="F13" t="n">
-        <v>343.099465685178</v>
+        <v>398.4954786600672</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000581</v>
+        <v>231.2993793749473</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000581</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782959</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038346</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797749</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
         <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487569</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.46108051051</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854708</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648822</v>
+        <v>1433.701365648821</v>
       </c>
       <c r="W13" t="n">
-        <v>1418.449741049603</v>
+        <v>1144.28419561186</v>
       </c>
       <c r="X13" t="n">
-        <v>1190.460190151586</v>
+        <v>916.294644713843</v>
       </c>
       <c r="Y13" t="n">
-        <v>969.6676110080562</v>
+        <v>695.5020655703131</v>
       </c>
     </row>
     <row r="14">
@@ -5252,34 +5254,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332386</v>
@@ -5291,37 +5293,37 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="15">
@@ -5349,34 +5351,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K15" t="n">
-        <v>245.2306927803937</v>
+        <v>175.8744207939072</v>
       </c>
       <c r="L15" t="n">
-        <v>740.5562989961525</v>
+        <v>671.2000270096659</v>
       </c>
       <c r="M15" t="n">
-        <v>1337.934786622704</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N15" t="n">
-        <v>1337.934786622704</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>951.3929232910565</v>
+        <v>929.7309773356187</v>
       </c>
       <c r="C16" t="n">
-        <v>782.4567403631497</v>
+        <v>929.7309773356187</v>
       </c>
       <c r="D16" t="n">
-        <v>632.3401009508142</v>
+        <v>779.6143379232831</v>
       </c>
       <c r="E16" t="n">
-        <v>631.70124434089</v>
+        <v>631.7012443408901</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429797</v>
+        <v>484.8112968429798</v>
       </c>
       <c r="G16" t="n">
         <v>317.6151975578599</v>
@@ -5431,10 +5433,10 @@
         <v>175.9033664000581</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782959</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
         <v>435.7419440038346</v>
@@ -5461,25 +5463,25 @@
         <v>2379.917379832664</v>
       </c>
       <c r="S16" t="n">
-        <v>2379.917379832664</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T16" t="n">
-        <v>2160.315914855606</v>
+        <v>1977.46108051051</v>
       </c>
       <c r="U16" t="n">
-        <v>1871.240688199804</v>
+        <v>1688.385853854708</v>
       </c>
       <c r="V16" t="n">
-        <v>1871.240688199804</v>
+        <v>1433.701365648822</v>
       </c>
       <c r="W16" t="n">
-        <v>1581.823518162843</v>
+        <v>1332.172021309388</v>
       </c>
       <c r="X16" t="n">
-        <v>1353.833967264826</v>
+        <v>1332.172021309388</v>
       </c>
       <c r="Y16" t="n">
-        <v>1133.041388121296</v>
+        <v>1111.379442165858</v>
       </c>
     </row>
     <row r="17">
@@ -5492,7 +5494,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5501,37 +5503,37 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168619</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362695</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5543,10 +5545,10 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
         <v>3820.749612123003</v>
@@ -5592,28 +5594,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167373</v>
+        <v>590.9096564684977</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793925</v>
+        <v>1188.28814409505</v>
       </c>
       <c r="N18" t="n">
-        <v>2299.457522348532</v>
+        <v>1815.886107649656</v>
       </c>
       <c r="O18" t="n">
-        <v>2299.457522348532</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
-        <v>2299.457522348532</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1016.580456911439</v>
+        <v>3227.210417279773</v>
       </c>
       <c r="C19" t="n">
-        <v>847.6442739835321</v>
+        <v>3173.601046153951</v>
       </c>
       <c r="D19" t="n">
-        <v>697.5276345711966</v>
+        <v>3023.484406741616</v>
       </c>
       <c r="E19" t="n">
-        <v>549.6145409888037</v>
+        <v>2875.571313159223</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908935</v>
+        <v>2728.681365661313</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057736</v>
+        <v>2561.485266376193</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782959</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038346</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797749</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.15024091081</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279804</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853362</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580262</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832664</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S19" t="n">
-        <v>2379.917379832664</v>
+        <v>4507.978318053498</v>
       </c>
       <c r="T19" t="n">
-        <v>2379.917379832664</v>
+        <v>4288.376853076439</v>
       </c>
       <c r="U19" t="n">
-        <v>2191.112710026073</v>
+        <v>3999.301626420637</v>
       </c>
       <c r="V19" t="n">
-        <v>1936.428221820186</v>
+        <v>3744.61713821475</v>
       </c>
       <c r="W19" t="n">
-        <v>1647.011051783226</v>
+        <v>3455.19996817779</v>
       </c>
       <c r="X19" t="n">
-        <v>1419.021500885209</v>
+        <v>3227.210417279773</v>
       </c>
       <c r="Y19" t="n">
-        <v>1198.228921741679</v>
+        <v>3227.210417279773</v>
       </c>
     </row>
     <row r="20">
@@ -5738,34 +5740,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5792,7 +5794,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C21" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D21" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G21" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>2233.355914590558</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>2233.355914590558</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>2418.621364762389</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L21" t="n">
-        <v>2913.946970978148</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M21" t="n">
-        <v>3511.3254586047</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N21" t="n">
-        <v>4138.923422159307</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O21" t="n">
-        <v>4690.833152398593</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P21" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S21" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T21" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U21" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V21" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W21" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X21" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y21" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3044.50749608713</v>
+        <v>733.4550657171305</v>
       </c>
       <c r="C22" t="n">
-        <v>2875.571313159223</v>
+        <v>564.5188827892237</v>
       </c>
       <c r="D22" t="n">
-        <v>2875.571313159223</v>
+        <v>414.4022433768879</v>
       </c>
       <c r="E22" t="n">
-        <v>2875.571313159223</v>
+        <v>266.4891497944948</v>
       </c>
       <c r="F22" t="n">
-        <v>2728.681365661313</v>
+        <v>119.5992022965844</v>
       </c>
       <c r="G22" t="n">
-        <v>2561.485266376193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>4623.787448650996</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>4623.787448650996</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>4404.185983673938</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="U22" t="n">
-        <v>4219.039749201764</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V22" t="n">
-        <v>3964.355260995877</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W22" t="n">
-        <v>3674.938090958916</v>
+        <v>1363.885660588918</v>
       </c>
       <c r="X22" t="n">
-        <v>3446.948540060899</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y22" t="n">
-        <v>3226.155960917369</v>
+        <v>915.1035305473703</v>
       </c>
     </row>
     <row r="23">
@@ -5966,16 +5968,16 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
@@ -5984,13 +5986,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -5999,37 +6001,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6069,25 +6071,25 @@
         <v>2381.235169913446</v>
       </c>
       <c r="K24" t="n">
-        <v>2453.684166529967</v>
+        <v>2381.235169913446</v>
       </c>
       <c r="L24" t="n">
-        <v>2453.684166529967</v>
+        <v>2876.560776129205</v>
       </c>
       <c r="M24" t="n">
-        <v>3051.062654156519</v>
+        <v>3473.939263755757</v>
       </c>
       <c r="N24" t="n">
-        <v>3678.660617711126</v>
+        <v>4101.537227310364</v>
       </c>
       <c r="O24" t="n">
-        <v>4230.570347950413</v>
+        <v>4653.446957549651</v>
       </c>
       <c r="P24" t="n">
-        <v>4654.193497445481</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="Q24" t="n">
-        <v>4654.193497445481</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R24" t="n">
         <v>4690.833152398593</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3342.537229081858</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>3173.601046153951</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D25" t="n">
-        <v>3023.484406741616</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E25" t="n">
-        <v>2875.571313159223</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F25" t="n">
-        <v>2728.681365661313</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>2561.485266376193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>4623.787448650996</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>4440.932614305901</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>4221.331149328842</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>3932.25592267304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>3932.25592267304</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>3642.838752636079</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>3642.838752636079</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>3422.046173492549</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6212,22 +6214,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6260,13 +6262,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6300,28 +6302,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K27" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L27" t="n">
-        <v>243.4633055756266</v>
+        <v>590.9096564684977</v>
       </c>
       <c r="M27" t="n">
-        <v>840.8417932021785</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N27" t="n">
-        <v>1468.439756756785</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O27" t="n">
-        <v>2020.349486996072</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P27" t="n">
-        <v>2443.97263649114</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3333.446064938863</v>
+        <v>931.4710609784072</v>
       </c>
       <c r="C28" t="n">
-        <v>3164.509882010957</v>
+        <v>762.5348780505001</v>
       </c>
       <c r="D28" t="n">
-        <v>3014.393242598621</v>
+        <v>612.4182386381642</v>
       </c>
       <c r="E28" t="n">
-        <v>2866.480149016228</v>
+        <v>464.505145055771</v>
       </c>
       <c r="F28" t="n">
-        <v>2719.590201518317</v>
+        <v>317.6151975578605</v>
       </c>
       <c r="G28" t="n">
-        <v>2552.394102233197</v>
+        <v>317.6151975578605</v>
       </c>
       <c r="H28" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000584</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782955</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822167</v>
+        <v>435.741944003834</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998107</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S28" t="n">
-        <v>4507.978318053498</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T28" t="n">
-        <v>4507.978318053498</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U28" t="n">
-        <v>4507.978318053498</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V28" t="n">
-        <v>4253.293829847611</v>
+        <v>1561.901655850195</v>
       </c>
       <c r="W28" t="n">
-        <v>3963.87665981065</v>
+        <v>1561.901655850195</v>
       </c>
       <c r="X28" t="n">
-        <v>3735.887108912633</v>
+        <v>1333.912104952177</v>
       </c>
       <c r="Y28" t="n">
-        <v>3515.094529769103</v>
+        <v>1113.119525808647</v>
       </c>
     </row>
     <row r="29">
@@ -6437,10 +6439,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004712</v>
@@ -6449,10 +6451,10 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.77365361686</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
@@ -6464,7 +6466,7 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6476,7 +6478,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6494,19 +6496,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6540,25 +6542,25 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>95.58405025273903</v>
+        <v>244.2098454714574</v>
       </c>
       <c r="K30" t="n">
-        <v>429.5088224239596</v>
+        <v>244.2098454714574</v>
       </c>
       <c r="L30" t="n">
-        <v>429.5088224239596</v>
+        <v>739.5354516872161</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q30" t="n">
         <v>2516.421633107662</v>
@@ -6595,37 +6597,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>849.3843576263199</v>
+        <v>788.0191461778182</v>
       </c>
       <c r="C31" t="n">
-        <v>680.448174698413</v>
+        <v>788.0191461778182</v>
       </c>
       <c r="D31" t="n">
-        <v>530.3315352860773</v>
+        <v>637.9025067654824</v>
       </c>
       <c r="E31" t="n">
-        <v>382.4184417036842</v>
+        <v>489.9894131830891</v>
       </c>
       <c r="F31" t="n">
-        <v>235.5284942057738</v>
+        <v>343.0994656851786</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000584</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000584</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782955</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.741944003834</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
@@ -6637,34 +6639,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q31" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T31" t="n">
-        <v>2197.062545487567</v>
+        <v>2227.3616186032</v>
       </c>
       <c r="U31" t="n">
-        <v>1907.987318831765</v>
+        <v>1938.286391947398</v>
       </c>
       <c r="V31" t="n">
-        <v>1653.302830625878</v>
+        <v>1707.866911086567</v>
       </c>
       <c r="W31" t="n">
-        <v>1363.885660588917</v>
+        <v>1418.449741049606</v>
       </c>
       <c r="X31" t="n">
-        <v>1135.8961096909</v>
+        <v>1190.460190151588</v>
       </c>
       <c r="Y31" t="n">
-        <v>915.1035305473698</v>
+        <v>969.6676110080581</v>
       </c>
     </row>
     <row r="32">
@@ -6686,19 +6688,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
@@ -6707,13 +6709,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6774,31 +6776,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>95.58405025273903</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>506.2737913123336</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M33" t="n">
-        <v>1103.652278938886</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N33" t="n">
-        <v>1731.250242493492</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,37 +6834,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>948.5505208511906</v>
+        <v>513.8536007400697</v>
       </c>
       <c r="C34" t="n">
-        <v>779.6143379232838</v>
+        <v>513.8536007400697</v>
       </c>
       <c r="D34" t="n">
-        <v>779.6143379232838</v>
+        <v>484.8112968429807</v>
       </c>
       <c r="E34" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429807</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429807</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578605</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000584</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782955</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.741944003834</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
@@ -6874,34 +6876,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q34" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S34" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T34" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U34" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V34" t="n">
-        <v>1868.398285759938</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W34" t="n">
-        <v>1578.981115722978</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X34" t="n">
-        <v>1350.99156482496</v>
+        <v>916.2946447138398</v>
       </c>
       <c r="Y34" t="n">
-        <v>1130.19898568143</v>
+        <v>695.5020655703096</v>
       </c>
     </row>
     <row r="35">
@@ -6932,10 +6934,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075807</v>
@@ -6950,7 +6952,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6971,7 +6973,7 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
         <v>3467.980956852889</v>
@@ -7017,25 +7019,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>315.9123021921482</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L36" t="n">
-        <v>315.9123021921482</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M36" t="n">
-        <v>913.2907898187001</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N36" t="n">
-        <v>1540.888753373307</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O36" t="n">
-        <v>2092.798483612594</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,10 +7071,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3050.708758511721</v>
+        <v>3200.825397924057</v>
       </c>
       <c r="C37" t="n">
-        <v>2881.772575583814</v>
+        <v>3031.88921499615</v>
       </c>
       <c r="D37" t="n">
         <v>2881.772575583814</v>
@@ -7126,19 +7128,19 @@
         <v>4221.331149328841</v>
       </c>
       <c r="U37" t="n">
-        <v>4043.592546796116</v>
+        <v>4193.709186208452</v>
       </c>
       <c r="V37" t="n">
-        <v>3788.908058590229</v>
+        <v>3939.024698002565</v>
       </c>
       <c r="W37" t="n">
-        <v>3499.490888553269</v>
+        <v>3649.607527965604</v>
       </c>
       <c r="X37" t="n">
-        <v>3271.501337655251</v>
+        <v>3421.617977067587</v>
       </c>
       <c r="Y37" t="n">
-        <v>3050.708758511721</v>
+        <v>3200.825397924057</v>
       </c>
     </row>
     <row r="38">
@@ -7157,10 +7159,10 @@
         <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7169,13 +7171,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7248,31 +7250,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K39" t="n">
-        <v>243.4633055756266</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="L39" t="n">
-        <v>738.7889117913853</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M39" t="n">
-        <v>1336.167399417937</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N39" t="n">
-        <v>1963.765362972544</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O39" t="n">
-        <v>2515.675093211831</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2515.675093211831</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>733.4550657171301</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>733.4550657171301</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E40" t="n">
-        <v>197.0043242297712</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F40" t="n">
-        <v>197.0043242297712</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7360,22 +7362,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>915.1035305473698</v>
       </c>
     </row>
     <row r="41">
@@ -7400,28 +7402,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7430,7 +7432,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7451,7 +7453,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>943.3991132778466</v>
+        <v>3081.170977615666</v>
       </c>
       <c r="C42" t="n">
-        <v>768.9460839967196</v>
+        <v>2906.717948334539</v>
       </c>
       <c r="D42" t="n">
-        <v>620.0116743354683</v>
+        <v>2757.783538673288</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>2598.546083667832</v>
       </c>
       <c r="F42" t="n">
-        <v>314.2396613568978</v>
+        <v>2452.011525694717</v>
       </c>
       <c r="G42" t="n">
-        <v>178.4809954028057</v>
+        <v>2316.252859740625</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>2381.235169913446</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>2381.235169913446</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>2876.560776129205</v>
       </c>
       <c r="M42" t="n">
-        <v>1074.481071167373</v>
+        <v>3278.063798229818</v>
       </c>
       <c r="N42" t="n">
-        <v>1344.266747951538</v>
+        <v>3905.661761784424</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190825</v>
+        <v>4457.571492023711</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>4457.571492023711</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R42" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S42" t="n">
-        <v>2434.850501963388</v>
+        <v>4572.622366301206</v>
       </c>
       <c r="T42" t="n">
-        <v>2244.643795685161</v>
+        <v>4382.41566002298</v>
       </c>
       <c r="U42" t="n">
-        <v>2016.615714228345</v>
+        <v>4154.387578566165</v>
       </c>
       <c r="V42" t="n">
-        <v>1781.463605996603</v>
+        <v>3919.235470334422</v>
       </c>
       <c r="W42" t="n">
-        <v>1527.226249268401</v>
+        <v>3664.998113606221</v>
       </c>
       <c r="X42" t="n">
-        <v>1319.374749062868</v>
+        <v>3457.146613400688</v>
       </c>
       <c r="Y42" t="n">
-        <v>1111.614450297915</v>
+        <v>3249.386314635734</v>
       </c>
     </row>
     <row r="43">
@@ -7543,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>806.8386896933887</v>
+        <v>789.7592298206043</v>
       </c>
       <c r="C43" t="n">
-        <v>637.9025067654818</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="D43" t="n">
-        <v>637.9025067654818</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E43" t="n">
-        <v>489.9894131830887</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F43" t="n">
-        <v>343.0994656851783</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G43" t="n">
         <v>175.9033664000583</v>
@@ -7594,25 +7596,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W43" t="n">
-        <v>1216.476705421646</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X43" t="n">
-        <v>988.4871545236284</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y43" t="n">
-        <v>988.4871545236284</v>
+        <v>971.4076946508441</v>
       </c>
     </row>
     <row r="44">
@@ -7634,7 +7636,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362687</v>
@@ -7643,13 +7645,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7661,7 +7663,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7725,25 +7727,25 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="L45" t="n">
-        <v>579.1554649516142</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M45" t="n">
-        <v>716.6687843969308</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N45" t="n">
-        <v>1344.266747951538</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7780,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>951.777212765616</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>782.8410298377091</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>632.7243904253734</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E46" t="n">
-        <v>484.8112968429803</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7828,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1361.415228493873</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1133.425677595856</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>1133.425677595856</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8061,25 +8063,25 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>280.1079373569282</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>211.0329012241559</v>
       </c>
       <c r="N3" t="n">
-        <v>249.3877325071649</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154988</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8295,13 +8297,13 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>186.5911984019043</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>342.9044714621888</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>186.4490126143851</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -8310,13 +8312,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154991</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8526,7 +8528,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -8535,7 +8537,7 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>211.0329012241558</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8547,13 +8549,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23413,16 +23415,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986277</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.433962646569</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23431,7 +23433,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462237</v>
+        <v>85.45266000108344</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23476,7 +23478,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>271.4238899833647</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23653,13 +23655,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986277</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>145.801494602744</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23701,7 +23703,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016444</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23710,13 +23712,13 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>186.008947440552</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.709655389037</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23887,10 +23889,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>114.1735436840646</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23908,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856536</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,16 +23937,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012154</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016444</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272881</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>99.2678512807185</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23956,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24130,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>139.9994244361424</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,13 +24177,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016444</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>102.8897022617917</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24361,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>101.1181252153529</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24370,19 +24372,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>46.45968844823057</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24421,13 +24423,13 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.1376433238278</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.709655389037</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24613,10 +24615,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.524138292269</v>
       </c>
       <c r="H28" t="n">
-        <v>9.000252501565257</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24646,22 +24648,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>126.9182872993632</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.5229983365911</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24835,10 +24837,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>114.7699989900979</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24850,13 +24852,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.294712846224</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,19 +24885,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012183</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016447</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>24.02235727160496</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25075,16 +25077,16 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>119.8635921600944</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25123,7 +25125,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25132,7 +25134,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>249.323664908363</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25315,7 +25317,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25366,7 +25368,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>110.2232578818464</v>
+        <v>258.8387309000586</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25549,25 +25551,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>28.78901421003559</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>63.36835372228751</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25600,7 +25602,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25789,7 +25791,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25798,7 +25800,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
@@ -25834,7 +25836,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25846,13 +25848,13 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>71.47058471168953</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>92.12028678808279</v>
       </c>
     </row>
     <row r="44">
@@ -26029,19 +26031,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>65.54986409393069</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26083,13 +26085,13 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>148.5844758430727</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>683458.8997881572</v>
+        <v>689400.827289228</v>
       </c>
     </row>
     <row r="5">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>671995.3843943785</v>
+        <v>671995.3843943784</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>671995.3843943785</v>
+        <v>671995.3843943783</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>671995.3843943785</v>
+        <v>671995.3843943783</v>
       </c>
     </row>
     <row r="11">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>671995.3843943783</v>
+        <v>671995.3843943784</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>671995.3843943783</v>
+        <v>671995.3843943784</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>671995.3843943784</v>
+        <v>671995.3843943783</v>
       </c>
     </row>
   </sheetData>
@@ -26317,43 +26319,43 @@
         <v>759463.6371244626</v>
       </c>
       <c r="D2" t="n">
-        <v>759463.6371244623</v>
+        <v>759463.6371244626</v>
       </c>
       <c r="E2" t="n">
         <v>746610.6047132553</v>
       </c>
       <c r="F2" t="n">
-        <v>746610.6047132553</v>
+        <v>746610.6047132554</v>
       </c>
       <c r="G2" t="n">
-        <v>746610.6047132551</v>
+        <v>746610.6047132554</v>
       </c>
       <c r="H2" t="n">
         <v>746610.6047132552</v>
       </c>
       <c r="I2" t="n">
+        <v>746610.6047132553</v>
+      </c>
+      <c r="J2" t="n">
+        <v>746610.6047132552</v>
+      </c>
+      <c r="K2" t="n">
+        <v>746610.6047132554</v>
+      </c>
+      <c r="L2" t="n">
         <v>746610.6047132555</v>
-      </c>
-      <c r="J2" t="n">
-        <v>746610.6047132553</v>
-      </c>
-      <c r="K2" t="n">
-        <v>746610.6047132551</v>
-      </c>
-      <c r="L2" t="n">
-        <v>746610.6047132554</v>
       </c>
       <c r="M2" t="n">
         <v>746610.6047132554</v>
       </c>
       <c r="N2" t="n">
-        <v>746610.6047132552</v>
+        <v>746610.6047132553</v>
       </c>
       <c r="O2" t="n">
-        <v>746610.6047132552</v>
+        <v>746610.6047132553</v>
       </c>
       <c r="P2" t="n">
-        <v>746610.6047132552</v>
+        <v>746610.6047132553</v>
       </c>
     </row>
     <row r="3">
@@ -26363,40 +26365,40 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.78357592</v>
+        <v>1114751.783575919</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>192627.140440338</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073553</v>
+        <v>507485.4416245457</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>6.216380545363512e-11</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099825</v>
+        <v>167605.1778099824</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>48293.97000819077</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>132607.2937289267</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,37 +26417,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>131909.7268316249</v>
+        <v>131909.726831625</v>
       </c>
       <c r="C4" t="n">
         <v>131909.726831625</v>
       </c>
       <c r="D4" t="n">
-        <v>86084.45926805864</v>
+        <v>131909.726831625</v>
       </c>
       <c r="E4" t="n">
-        <v>6897.424496707519</v>
+        <v>6897.424496707494</v>
       </c>
       <c r="F4" t="n">
-        <v>6897.424496707414</v>
+        <v>6897.42449670747</v>
       </c>
       <c r="G4" t="n">
-        <v>6897.42449670741</v>
+        <v>6897.424496707412</v>
       </c>
       <c r="H4" t="n">
-        <v>6897.424496707414</v>
+        <v>6897.424496707361</v>
       </c>
       <c r="I4" t="n">
-        <v>6897.424496707414</v>
+        <v>6897.424496707361</v>
       </c>
       <c r="J4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.424496707295</v>
       </c>
       <c r="K4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.424496707297</v>
       </c>
       <c r="L4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.424496707314</v>
       </c>
       <c r="M4" t="n">
         <v>6897.42449670736</v>
@@ -26457,7 +26459,7 @@
         <v>6897.424496707359</v>
       </c>
       <c r="P4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.424496707361</v>
       </c>
     </row>
     <row r="5">
@@ -26467,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
         <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
-        <v>107933.9405613933</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-580135.6457229272</v>
+        <v>-580135.6457229267</v>
       </c>
       <c r="C6" t="n">
-        <v>534616.1378529932</v>
+        <v>534616.137852993</v>
       </c>
       <c r="D6" t="n">
-        <v>372818.0968546724</v>
+        <v>534616.137852993</v>
       </c>
       <c r="E6" t="n">
-        <v>313178.1885852854</v>
+        <v>131105.208768095</v>
       </c>
       <c r="F6" t="n">
+        <v>638590.6503926406</v>
+      </c>
+      <c r="G6" t="n">
         <v>638590.6503926408</v>
-      </c>
-      <c r="G6" t="n">
-        <v>638590.6503926406</v>
       </c>
       <c r="H6" t="n">
         <v>638590.6503926406</v>
       </c>
       <c r="I6" t="n">
+        <v>638590.6503926408</v>
+      </c>
+      <c r="J6" t="n">
+        <v>470985.4725826585</v>
+      </c>
+      <c r="K6" t="n">
         <v>638590.6503926411</v>
       </c>
-      <c r="J6" t="n">
-        <v>470985.4725826583</v>
-      </c>
-      <c r="K6" t="n">
-        <v>638590.6503926406</v>
-      </c>
       <c r="L6" t="n">
-        <v>590296.6803844502</v>
+        <v>638590.6503926412</v>
       </c>
       <c r="M6" t="n">
-        <v>553535.6224571292</v>
+        <v>505983.3566637142</v>
       </c>
       <c r="N6" t="n">
-        <v>638590.6503926407</v>
+        <v>638590.6503926408</v>
       </c>
       <c r="O6" t="n">
-        <v>638590.6503926407</v>
+        <v>638590.6503926408</v>
       </c>
       <c r="P6" t="n">
-        <v>638590.6503926407</v>
+        <v>638590.6503926408</v>
       </c>
     </row>
   </sheetData>
@@ -26692,13 +26694,13 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>1.399222618112197e-13</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>1.399222618112197e-13</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>1.399222618112197e-13</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26735,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
         <v>934.0648921175391</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593298</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,16 +26789,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26914,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>1.399222618112197e-13</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26957,25 +26959,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>155.7118084757592</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>433.9106082241343</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27009,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>190.816623302254</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>532.1234559996094</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27039,10 +27041,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.816623302254</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>532.1234559996094</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>1.399222618112197e-13</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27255,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.816623302254</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>532.1234559996094</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,10 +27384,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27397,7 +27399,7 @@
         <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27436,10 +27438,10 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>301.243090751079</v>
       </c>
       <c r="W2" t="n">
-        <v>66.44807340499244</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27534,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27543,16 +27545,16 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>117.9131193049875</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27585,7 +27587,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>10.20918652669698</v>
       </c>
       <c r="T4" t="n">
         <v>220.7486959972119</v>
@@ -27597,7 +27599,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27622,16 +27624,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>220.2492909923185</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27667,16 +27669,16 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>117.2248474301551</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27771,22 +27773,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>147.2515091551289</v>
@@ -27822,10 +27824,10 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>168.7046836607057</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27834,7 +27836,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>226.2218074710138</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27853,25 +27855,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>240.2596737416844</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>238.7292118970956</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28011,10 +28013,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28023,13 +28025,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,16 +28058,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>147.0909790483777</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28074,7 +28076,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>97.47010949930291</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28087,25 +28089,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>1.399222618112197e-13</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>1.399222618112197e-13</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>1.399222618112197e-13</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>1.399222618112197e-13</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>1.399222618112197e-13</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>1.399222618112197e-13</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1.399222618112197e-13</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28138,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>1.399222618112197e-13</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>1.399222618112197e-13</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>1.399222618112197e-13</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>1.399222618112197e-13</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>1.399222618112197e-13</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>1.399222618112197e-13</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>1.399222618112197e-13</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28247,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>1.399222618112197e-13</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>1.399222618112197e-13</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>1.399222618112197e-13</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>1.399222618112197e-13</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>1.399222618112197e-13</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>1.399222618112197e-13</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>1.399222618112197e-13</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>1.399222618112197e-13</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>1.399222618112197e-13</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>1.399222618112197e-13</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>1.399222618112197e-13</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>1.399222618112197e-13</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>1.399222618112197e-13</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>1.399222618112197e-13</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>1.399222618112197e-13</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>1.399222618112197e-13</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>1.399222618112197e-13</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>1.399222618112197e-13</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>1.399222618112197e-13</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>1.399222618112197e-13</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>1.399222618112197e-13</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>1.399222618112197e-13</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>1.399222618112197e-13</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>1.399222618112197e-13</v>
       </c>
     </row>
     <row r="14">
@@ -28339,7 +28341,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28482,76 +28484,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>1.399222618112197e-13</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>1.399222618112197e-13</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>1.399222618112197e-13</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>1.399222618112197e-13</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>1.399222618112197e-13</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>1.399222618112197e-13</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>1.399222618112197e-13</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>1.399222618112197e-13</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>1.399222618112197e-13</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>1.399222618112197e-13</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>1.399222618112197e-13</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>1.399222618112197e-13</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>1.399222618112197e-13</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>1.399222618112197e-13</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>1.399222618112197e-13</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>1.399222618112197e-13</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>1.399222618112197e-13</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>1.399222618112197e-13</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>1.399222618112197e-13</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>1.399222618112197e-13</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>1.399222618112197e-13</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>1.399222618112197e-13</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>1.399222618112197e-13</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>1.399222618112197e-13</v>
       </c>
     </row>
     <row r="17">
@@ -28612,7 +28614,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>1.399222618112197e-13</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -28719,76 +28721,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>1.399222618112197e-13</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>1.399222618112197e-13</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>1.399222618112197e-13</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>1.399222618112197e-13</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>1.399222618112197e-13</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>1.399222618112197e-13</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>1.399222618112197e-13</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>1.399222618112197e-13</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>1.399222618112197e-13</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>1.399222618112197e-13</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>1.399222618112197e-13</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>1.399222618112197e-13</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>1.399222618112197e-13</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>1.399222618112197e-13</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>1.399222618112197e-13</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>1.399222618112197e-13</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>1.399222618112197e-13</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>1.399222618112197e-13</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>1.399222618112197e-13</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>1.399222618112197e-13</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>1.399222618112197e-13</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>1.399222618112197e-13</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>1.399222618112197e-13</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>1.399222618112197e-13</v>
       </c>
     </row>
     <row r="20">
@@ -29272,7 +29274,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>-1.399222618112197e-13</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -29335,13 +29337,13 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>-1.399222618112197e-13</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>-1.399222618112197e-13</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29432,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>-1.399222618112197e-13</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>-1.399222618112197e-13</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>-1.399222618112197e-13</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>-1.399222618112197e-13</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>-1.399222618112197e-13</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>-1.399222618112197e-13</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>-1.399222618112197e-13</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>-1.399222618112197e-13</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>-1.399222618112197e-13</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>-1.399222618112197e-13</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>-1.399222618112197e-13</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>-1.399222618112197e-13</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>-1.399222618112197e-13</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>-1.399222618112197e-13</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>-1.399222618112197e-13</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>-1.399222618112197e-13</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>-1.399222618112197e-13</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>-1.399222618112197e-13</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>-1.399222618112197e-13</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>-1.399222618112197e-13</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>-1.399222618112197e-13</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>-1.399222618112197e-13</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>-1.399222618112197e-13</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>-1.399222618112197e-13</v>
       </c>
     </row>
     <row r="29">
@@ -29515,19 +29517,19 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>-1.061081106854722e-13</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>-1.399222618112197e-13</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>-1.399222618112197e-13</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>1.307398633798584e-12</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>-1.399222618112197e-13</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -29560,25 +29562,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>-1.399222618112197e-13</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>-1.399222618112197e-13</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>-1.399222618112197e-13</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>-1.399222618112197e-13</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>-1.399222618112197e-13</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>-1.399222618112197e-13</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29669,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>-1.399222618112197e-13</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>-1.399222618112197e-13</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>-1.399222618112197e-13</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>-1.399222618112197e-13</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>-1.399222618112197e-13</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>-1.399222618112197e-13</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>-1.399222618112197e-13</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>-1.399222618112197e-13</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>-1.399222618112197e-13</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>-1.399222618112197e-13</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>-1.399222618112197e-13</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>-1.399222618112197e-13</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>-1.399222618112197e-13</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>-1.399222618112197e-13</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>-1.399222618112197e-13</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>-1.399222618112197e-13</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>-1.399222618112197e-13</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>-1.399222618112197e-13</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>-1.399222618112197e-13</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>-1.399222618112197e-13</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>-1.399222618112197e-13</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>-1.399222618112197e-13</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>-1.399222618112197e-13</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>-1.399222618112197e-13</v>
       </c>
     </row>
     <row r="32">
@@ -31039,46 +31041,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T2" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31121,10 +31123,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31133,34 +31135,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R3" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31203,7 +31205,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335772</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31218,10 +31220,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31230,16 +31232,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T8" t="n">
-        <v>19.1778794245112</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798531</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905541</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H10" t="n">
-        <v>17.47215759311879</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J10" t="n">
-        <v>138.937596729739</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.556281789588</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,37 +31752,37 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R11" t="n">
         <v>345.4516222043725</v>
@@ -31789,10 +31791,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31835,40 +31837,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P12" t="n">
-        <v>531.2627466777524</v>
+        <v>250.3097721075173</v>
       </c>
       <c r="Q12" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31914,28 +31916,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31944,7 +31946,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -32072,13 +32074,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>220.7280629601522</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473072</v>
@@ -32087,10 +32089,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>669.466988500007</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
         <v>561.8765786214698</v>
@@ -32099,7 +32101,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32312,10 +32314,10 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
@@ -32327,16 +32329,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>459.3154675919703</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>359.1374415194863</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32461,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,34 +32542,34 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>324.978257329744</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>526.2989357561996</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32576,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
@@ -32789,37 +32791,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>211.0222436375116</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>171.7382405950798</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33020,19 +33022,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>269.1634560719508</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
@@ -33044,7 +33046,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>250.1723312270667</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33260,16 +33262,16 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>276.96469254416</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>395.1848490935921</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
@@ -33278,10 +33280,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>182.6892564418561</v>
@@ -33494,16 +33496,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>553.392502062293</v>
+        <v>339.3493584601592</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33518,10 +33520,10 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33679,7 +33681,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
         <v>125.31755462929</v>
@@ -33737,10 +33739,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>211.0222436375122</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
@@ -33752,13 +33754,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>171.7382405950817</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33968,13 +33970,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>258.3858318060507</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
@@ -33983,19 +33985,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>177.7456072667729</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34132,7 +34134,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
         <v>867.846407116256</v>
@@ -34205,28 +34207,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>547.6926421044554</v>
       </c>
       <c r="N42" t="n">
-        <v>403.8524967138027</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>375.599612848529</v>
@@ -34363,7 +34365,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34445,16 +34447,16 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>397.4049812900382</v>
       </c>
       <c r="L45" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>281.0363767960755</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
@@ -34466,7 +34468,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P2" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091745</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K3" t="n">
         <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>577.7882979947784</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820406</v>
+        <v>577.9642335061964</v>
       </c>
       <c r="N3" t="n">
-        <v>640.5848321000389</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235323</v>
+        <v>568.1422977634694</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308546</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K4" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L4" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O4" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35015,13 +35017,13 @@
         <v>62.98022089091739</v>
       </c>
       <c r="K6" t="n">
-        <v>373.178694645389</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L6" t="n">
-        <v>640.5848321000389</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820404</v>
+        <v>553.3803448964255</v>
       </c>
       <c r="N6" t="n">
         <v>391.1970995928739</v>
@@ -35030,13 +35032,13 @@
         <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235322</v>
+        <v>568.1422977634694</v>
       </c>
       <c r="Q6" t="n">
         <v>116.4807223308545</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>24.58388860977091</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>62.98022089091742</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>508.7132618620059</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>568.1422977634695</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443196</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701981</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934838</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675401</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226398</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451104</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,31 +35406,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902404</v>
@@ -35483,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P12" t="n">
-        <v>397.2883392634221</v>
+        <v>116.3353646931871</v>
       </c>
       <c r="Q12" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,25 +35567,25 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295353</v>
+        <v>81.04648326295347</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096351</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010453</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060456</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
         <v>120.4022572998985</v>
@@ -35647,7 +35649,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367767</v>
       </c>
       <c r="L14" t="n">
         <v>632.0799921462688</v>
@@ -35720,13 +35722,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>82.88662398579325</v>
       </c>
       <c r="L15" t="n">
         <v>500.328895167433</v>
@@ -35735,10 +35737,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>526.8707440555626</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>427.9021712071395</v>
@@ -35747,7 +35749,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295353</v>
+        <v>81.0464832629535</v>
       </c>
       <c r="K16" t="n">
         <v>264.3325884096351</v>
@@ -35811,13 +35813,13 @@
         <v>394.3420143191316</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010453</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899075</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060456</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.6317733066251</v>
@@ -35905,7 +35907,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,10 +35962,10 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
@@ -35975,16 +35977,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>316.7192231475259</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>219.1556674334648</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295353</v>
+        <v>81.0464832629535</v>
       </c>
       <c r="K19" t="n">
         <v>264.3325884096351</v>
@@ -36048,13 +36050,13 @@
         <v>394.3420143191316</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010453</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899075</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060456</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.6317733066251</v>
@@ -36115,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,28 +36196,28 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>187.136818355385</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>394.9572236728663</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36276,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295353</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096351</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010453</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060456</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998985</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36352,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,28 +36439,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>73.1808046631526</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>37.76383318074956</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295353</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096351</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010453</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060456</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q25" t="n">
-        <v>120.4022572998985</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,7 +36597,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
         <v>632.0799921462688</v>
@@ -36668,19 +36670,19 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>127.0294221499325</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
@@ -36692,7 +36694,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>110.1905571410452</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295322</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096348</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191313</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P28" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066248</v>
       </c>
       <c r="Q28" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998982</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,7 +36834,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L29" t="n">
         <v>632.0799921462688</v>
@@ -36847,7 +36849,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
         <v>371.5675334924728</v>
@@ -36908,16 +36910,16 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>150.1270658774933</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>253.0508151715738</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
@@ -36926,10 +36928,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>37.00975247789211</v>
@@ -36987,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295322</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096348</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191313</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P31" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066248</v>
       </c>
       <c r="Q31" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998982</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37081,7 +37083,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
         <v>559.5874541683811</v>
@@ -37142,16 +37144,16 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>414.8381222824188</v>
+        <v>200.7949786802851</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37166,10 +37168,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295322</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096348</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191313</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P34" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066248</v>
       </c>
       <c r="Q34" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998982</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37327,7 +37329,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,10 +37387,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>73.18080466315317</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
@@ -37400,13 +37402,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>37.7638331807514</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37543,7 +37545,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
         <v>632.0799921462688</v>
@@ -37616,13 +37618,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>120.5443928316917</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
@@ -37631,19 +37633,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>37.7638331807514</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37780,7 +37782,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
         <v>632.0799921462688</v>
@@ -37853,28 +37855,28 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>405.5586081824371</v>
       </c>
       <c r="N42" t="n">
-        <v>272.5107846304694</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>235.6178387625075</v>
@@ -38011,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38032,7 +38034,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
         <v>371.5675334924728</v>
@@ -38093,16 +38095,16 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>259.5635423156792</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>138.9023428740572</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
@@ -38114,7 +38116,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_10_37.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_10_37.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3552830.607746227</v>
+        <v>3548693.450496073</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283186</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7820598.993825576</v>
+        <v>7820598.993825574</v>
       </c>
     </row>
     <row r="11">
@@ -664,13 +664,13 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>411.547702772954</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -715,19 +715,19 @@
         <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>212.8139575878567</v>
       </c>
       <c r="V2" t="n">
-        <v>26.50916771905592</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -825,19 +825,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>37.42307009719358</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,25 +864,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>184.4532738350405</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -895,25 +895,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>11.54770277295399</v>
+        <v>187.5175205517489</v>
       </c>
       <c r="H5" t="n">
-        <v>80.76926157008685</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
         <v>65.70991267247049</v>
@@ -964,7 +964,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1056,25 +1056,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>116.7550504648071</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1107,22 +1107,22 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>60.30119086557715</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1135,22 +1135,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>143.2011581751662</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1183,22 +1183,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>23.47240143010579</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1232,7 +1232,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1308,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1338,25 +1338,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>56.60860467372817</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>128.2395458897342</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1369,25 +1369,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710074</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206828</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417113</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187865</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444136</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881284</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174129</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784689</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182122</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229311</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922687</v>
+        <v>130.5513683573768</v>
       </c>
       <c r="H13" t="n">
-        <v>54.84205284514031</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856541</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012156</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016445</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272881</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.184474389244</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.1376433238279</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.5229983365909</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.709655389037</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520946</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1621,7 +1621,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187852</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1663,7 +1663,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819372</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182122</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.433962646569</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229311</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922687</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462237</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856539</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012154</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016445</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272881</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.184474389244</v>
+        <v>147.6895341487364</v>
       </c>
       <c r="V16" t="n">
-        <v>252.1376433238279</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>100.5140508960389</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520946</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695516</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -1912,7 +1912,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="18">
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>53.07327741456311</v>
+        <v>121.8000472740347</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182122</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.433962646569</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229311</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922687</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462237</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856539</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016445</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272881</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.184474389244</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>252.1376433238279</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.5229983365909</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.709655389037</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2244,19 +2244,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>25.52471385612643</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2332,7 +2332,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2481,16 +2481,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>99.97427419833861</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>103.1686991936193</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634807</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2608,7 +2608,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2617,13 +2617,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560537</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819374</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.246821098628</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182125</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465693</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229314</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.294712846224</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856568</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012183</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016447</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272884</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892443</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>125.219356024465</v>
+        <v>40.6225301034174</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890373</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520949</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2791,25 +2791,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634807</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710077</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.6830416206831</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722619</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417116</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187853</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,25 +2842,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695544</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576162</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560537</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819374</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182125</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465693</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229314</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.524138292269</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856568</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272884</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892443</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>228.1152860522232</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.5229983365911</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890373</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520949</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3043,7 +3043,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3186,13 +3186,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819374</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>28.75188085811813</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3201,13 +3201,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.524138292269</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.294712846224</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856568</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012183</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016447</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272884</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892443</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>252.1376433238281</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.5229983365911</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890373</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520949</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3328,7 +3328,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -3438,13 +3438,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3477,10 +3477,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>25.52471385612634</v>
       </c>
       <c r="U37" t="n">
-        <v>27.34574348918551</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3511,7 +3511,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3571,7 +3571,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="39">
@@ -3663,25 +3663,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>119.8264588081768</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3714,10 +3714,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3903,22 +3903,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>126.464366564012</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4140,7 +4140,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4149,10 +4149,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>99.97427419833815</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4306,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>832.1627361996682</v>
+        <v>1330.099343395678</v>
       </c>
       <c r="C2" t="n">
-        <v>832.1627361996682</v>
+        <v>1330.099343395678</v>
       </c>
       <c r="D2" t="n">
-        <v>473.8970375929177</v>
+        <v>1330.099343395678</v>
       </c>
       <c r="E2" t="n">
-        <v>473.8970375929177</v>
+        <v>944.3110907974335</v>
       </c>
       <c r="F2" t="n">
-        <v>466.9515368437143</v>
+        <v>533.3251860078259</v>
       </c>
       <c r="G2" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H2" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
         <v>187.5281822362817</v>
@@ -4357,25 +4357,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2437.640120926625</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
         <v>2228.89447953245</v>
       </c>
       <c r="U2" t="n">
-        <v>1975.313418796629</v>
+        <v>2013.930886009362</v>
       </c>
       <c r="V2" t="n">
-        <v>1948.536481706674</v>
+        <v>1682.867998665792</v>
       </c>
       <c r="W2" t="n">
-        <v>1595.76782643656</v>
+        <v>1330.099343395678</v>
       </c>
       <c r="X2" t="n">
-        <v>1222.30206817548</v>
+        <v>1330.099343395678</v>
       </c>
       <c r="Y2" t="n">
-        <v>832.1627361996682</v>
+        <v>1330.099343395678</v>
       </c>
     </row>
     <row r="3">
@@ -4400,37 +4400,37 @@
         <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182518</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
         <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500113</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310613</v>
+        <v>458.7060632252739</v>
       </c>
       <c r="L3" t="n">
-        <v>593.0223835625329</v>
+        <v>1092.885047004312</v>
       </c>
       <c r="M3" t="n">
-        <v>1165.206974733667</v>
+        <v>1456.147065963532</v>
       </c>
       <c r="N3" t="n">
-        <v>1552.492103330613</v>
+        <v>1843.432194560478</v>
       </c>
       <c r="O3" t="n">
-        <v>1884.562538506774</v>
+        <v>2175.502629736639</v>
       </c>
       <c r="P3" t="n">
-        <v>2447.023413292609</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q3" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1547.988193166235</v>
+        <v>682.7064461033923</v>
       </c>
       <c r="C4" t="n">
-        <v>1547.988193166235</v>
+        <v>682.7064461033923</v>
       </c>
       <c r="D4" t="n">
-        <v>1397.8715537539</v>
+        <v>532.5898066910565</v>
       </c>
       <c r="E4" t="n">
-        <v>1397.8715537539</v>
+        <v>384.6767131086634</v>
       </c>
       <c r="F4" t="n">
-        <v>1250.981606255989</v>
+        <v>237.7867656107531</v>
       </c>
       <c r="G4" t="n">
-        <v>1082.995141564268</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="H4" t="n">
-        <v>1082.995141564268</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I4" t="n">
-        <v>977.1399948936613</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>1002.60916787878</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K4" t="n">
-        <v>1174.299679627706</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>1449.530858294981</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M4" t="n">
-        <v>1750.112669035317</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N4" t="n">
-        <v>2048.981932571481</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>2309.019775324693</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P4" t="n">
-        <v>2508.006390496681</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q4" t="n">
-        <v>2562.339328400155</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>2459.755921915737</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>2273.439483698524</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T4" t="n">
-        <v>2273.439483698524</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U4" t="n">
-        <v>1984.321146202362</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V4" t="n">
-        <v>1729.636657996475</v>
+        <v>1381.76163186861</v>
       </c>
       <c r="W4" t="n">
-        <v>1729.636657996475</v>
+        <v>1092.344461831649</v>
       </c>
       <c r="X4" t="n">
-        <v>1729.636657996475</v>
+        <v>864.354910933632</v>
       </c>
       <c r="Y4" t="n">
-        <v>1729.636657996475</v>
+        <v>864.354910933632</v>
       </c>
     </row>
     <row r="5">
@@ -4543,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>603.6036480119269</v>
+        <v>1380.342820051861</v>
       </c>
       <c r="C5" t="n">
-        <v>603.6036480119269</v>
+        <v>1380.342820051861</v>
       </c>
       <c r="D5" t="n">
-        <v>603.6036480119269</v>
+        <v>1022.07712144511</v>
       </c>
       <c r="E5" t="n">
-        <v>217.8153954136827</v>
+        <v>1022.07712144511</v>
       </c>
       <c r="F5" t="n">
-        <v>210.8698946644792</v>
+        <v>611.0912166555029</v>
       </c>
       <c r="G5" t="n">
-        <v>199.2055484291722</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H5" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
         <v>187.5281822362822</v>
@@ -4594,25 +4594,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926625</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T5" t="n">
-        <v>2437.640120926625</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U5" t="n">
-        <v>2437.640120926625</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="V5" t="n">
-        <v>2106.577233583054</v>
+        <v>2106.577233583055</v>
       </c>
       <c r="W5" t="n">
-        <v>1753.80857831294</v>
+        <v>1753.808578312941</v>
       </c>
       <c r="X5" t="n">
-        <v>1380.34282005186</v>
+        <v>1380.342820051861</v>
       </c>
       <c r="Y5" t="n">
-        <v>990.2034880760486</v>
+        <v>1380.342820051861</v>
       </c>
     </row>
     <row r="6">
@@ -4640,34 +4640,34 @@
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057902</v>
       </c>
       <c r="I6" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500113</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>298.3188265310613</v>
+        <v>614.5430248380227</v>
       </c>
       <c r="L6" t="n">
-        <v>593.0223835625329</v>
+        <v>909.2465818694943</v>
       </c>
       <c r="M6" t="n">
-        <v>1140.868925009994</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N6" t="n">
-        <v>1528.154053606939</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O6" t="n">
-        <v>1860.224488783101</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P6" t="n">
-        <v>2422.685363568936</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q6" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R6" t="n">
         <v>2562.339328400155</v>
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>622.0949848405774</v>
+        <v>783.0370443974452</v>
       </c>
       <c r="C7" t="n">
-        <v>622.0949848405774</v>
+        <v>614.1008614695384</v>
       </c>
       <c r="D7" t="n">
-        <v>471.9783454282416</v>
+        <v>463.9842220572026</v>
       </c>
       <c r="E7" t="n">
-        <v>471.9783454282416</v>
+        <v>316.0711284748095</v>
       </c>
       <c r="F7" t="n">
-        <v>325.0883979303312</v>
+        <v>169.1811809768991</v>
       </c>
       <c r="G7" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H7" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K7" t="n">
         <v>248.4064713020475</v>
@@ -4755,22 +4755,22 @@
         <v>1636.446120074497</v>
       </c>
       <c r="T7" t="n">
-        <v>1636.446120074497</v>
+        <v>1413.467639269232</v>
       </c>
       <c r="U7" t="n">
-        <v>1347.327782578335</v>
+        <v>1413.467639269232</v>
       </c>
       <c r="V7" t="n">
-        <v>1092.643294372448</v>
+        <v>1413.467639269232</v>
       </c>
       <c r="W7" t="n">
-        <v>1031.733000568835</v>
+        <v>1413.467639269232</v>
       </c>
       <c r="X7" t="n">
-        <v>803.7434496708171</v>
+        <v>1185.478088371215</v>
       </c>
       <c r="Y7" t="n">
-        <v>803.7434496708171</v>
+        <v>964.685509227685</v>
       </c>
     </row>
     <row r="8">
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1245.791627622475</v>
+        <v>1263.725694231566</v>
       </c>
       <c r="C8" t="n">
-        <v>876.8291106820636</v>
+        <v>1263.725694231566</v>
       </c>
       <c r="D8" t="n">
-        <v>518.5634120753132</v>
+        <v>1263.725694231566</v>
       </c>
       <c r="E8" t="n">
-        <v>373.9157775549433</v>
+        <v>877.9374416333219</v>
       </c>
       <c r="F8" t="n">
-        <v>366.9702768057398</v>
+        <v>466.9515368437143</v>
       </c>
       <c r="G8" t="n">
-        <v>355.3059305704328</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816075</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872915</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923561</v>
@@ -4831,25 +4831,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T8" t="n">
-        <v>2353.59368700598</v>
+        <v>2413.93062453258</v>
       </c>
       <c r="U8" t="n">
-        <v>2353.59368700598</v>
+        <v>2413.93062453258</v>
       </c>
       <c r="V8" t="n">
-        <v>2022.530799662409</v>
+        <v>2413.93062453258</v>
       </c>
       <c r="W8" t="n">
-        <v>2022.530799662409</v>
+        <v>2413.93062453258</v>
       </c>
       <c r="X8" t="n">
-        <v>2022.530799662409</v>
+        <v>2040.4648662715</v>
       </c>
       <c r="Y8" t="n">
-        <v>1632.391467686597</v>
+        <v>1650.325534295688</v>
       </c>
     </row>
     <row r="9">
@@ -4859,19 +4859,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488048</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G9" t="n">
         <v>165.443278618252</v>
@@ -4880,16 +4880,16 @@
         <v>71.67401812057899</v>
       </c>
       <c r="I9" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500113</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K9" t="n">
-        <v>298.3188265310613</v>
+        <v>507.2413987429757</v>
       </c>
       <c r="L9" t="n">
-        <v>801.9449557744472</v>
+        <v>801.9449557744474</v>
       </c>
       <c r="M9" t="n">
         <v>1165.206974733667</v>
@@ -4898,7 +4898,7 @@
         <v>1552.492103330613</v>
       </c>
       <c r="O9" t="n">
-        <v>1884.562538506774</v>
+        <v>1884.562538506775</v>
       </c>
       <c r="P9" t="n">
         <v>2447.023413292609</v>
@@ -4938,40 +4938,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>519.0385070447395</v>
+        <v>370.2996089082458</v>
       </c>
       <c r="C10" t="n">
-        <v>350.1023241168326</v>
+        <v>201.3634259803388</v>
       </c>
       <c r="D10" t="n">
-        <v>199.9856847044969</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="E10" t="n">
-        <v>199.9856847044969</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F10" t="n">
-        <v>199.9856847044969</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G10" t="n">
-        <v>199.9856847044969</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312198</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
@@ -4986,28 +4986,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074497</v>
+        <v>1579.265711313156</v>
       </c>
       <c r="S10" t="n">
-        <v>1636.446120074497</v>
+        <v>1579.265711313156</v>
       </c>
       <c r="T10" t="n">
-        <v>1413.467639269233</v>
+        <v>1579.265711313156</v>
       </c>
       <c r="U10" t="n">
-        <v>1413.467639269233</v>
+        <v>1290.147373816994</v>
       </c>
       <c r="V10" t="n">
-        <v>1158.783151063346</v>
+        <v>1290.147373816994</v>
       </c>
       <c r="W10" t="n">
-        <v>869.365981026385</v>
+        <v>1000.730203780033</v>
       </c>
       <c r="X10" t="n">
-        <v>739.8310861882696</v>
+        <v>772.7406528820156</v>
       </c>
       <c r="Y10" t="n">
-        <v>519.0385070447395</v>
+        <v>551.9480737384855</v>
       </c>
     </row>
     <row r="11">
@@ -5023,22 +5023,22 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111717</v>
@@ -5047,46 +5047,46 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5114,31 +5114,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191924</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>427.7414352191924</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1025.119922845744</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1652.71788640035</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>2204.627616639637</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>695.5020655703131</v>
+        <v>768.5380889459582</v>
       </c>
       <c r="C13" t="n">
-        <v>695.5020655703131</v>
+        <v>599.6019060180513</v>
       </c>
       <c r="D13" t="n">
-        <v>545.3854261579775</v>
+        <v>449.4852666057155</v>
       </c>
       <c r="E13" t="n">
-        <v>545.3854261579775</v>
+        <v>449.4852666057155</v>
       </c>
       <c r="F13" t="n">
-        <v>398.4954786600672</v>
+        <v>449.4852666057155</v>
       </c>
       <c r="G13" t="n">
-        <v>231.2993793749473</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000581</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648821</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.28419561186</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X13" t="n">
-        <v>916.294644713843</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703131</v>
+        <v>950.1865537761979</v>
       </c>
     </row>
     <row r="14">
@@ -5254,37 +5254,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
         <v>2206.558663014778</v>
@@ -5296,34 +5296,34 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5351,34 +5351,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>175.8744207939072</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>671.2000270096659</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1268.578514636218</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1896.176478190825</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>929.7309773356187</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356187</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232831</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408901</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429798</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578599</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000581</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038346</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797749</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487569</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.46108051051</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854708</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648822</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W16" t="n">
-        <v>1332.172021309388</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X16" t="n">
-        <v>1332.172021309388</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y16" t="n">
-        <v>1111.379442165858</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="17">
@@ -5512,28 +5512,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5591,25 +5591,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>95.58405025273903</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L18" t="n">
-        <v>590.9096564684977</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M18" t="n">
-        <v>1188.28814409505</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N18" t="n">
-        <v>1815.886107649656</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>3227.210417279773</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>3173.601046153951</v>
+        <v>390.823249958218</v>
       </c>
       <c r="D19" t="n">
-        <v>3023.484406741616</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E19" t="n">
-        <v>2875.571313159223</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F19" t="n">
-        <v>2728.681365661313</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>2561.485266376193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>4507.978318053498</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>4288.376853076439</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>3999.301626420637</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>3744.61713821475</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>3455.19996817779</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>3227.210417279773</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>3227.210417279773</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5743,25 +5743,25 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
         <v>2950.898526355937</v>
@@ -5794,7 +5794,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5828,25 +5828,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>589.1422692637307</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>733.4550657171305</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>564.5188827892237</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>414.4022433768879</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>266.4891497944948</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>119.5992022965844</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5910,52 +5910,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2197.062545487568</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1363.885660588918</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1135.8961096909</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>915.1035305473703</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5968,16 +5968,16 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
@@ -5989,10 +5989,10 @@
         <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6001,37 +6001,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C24" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D24" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G24" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>2231.588527385791</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>2381.235169913446</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>2381.235169913446</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>2876.560776129205</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>3473.939263755757</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>4101.537227310364</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>4653.446957549651</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S24" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T24" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U24" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V24" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W24" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X24" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y24" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="25">
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>194.8007783998291</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>93.81666304797187</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>93.81666304797187</v>
+        <v>198.027470314254</v>
       </c>
       <c r="G25" t="n">
         <v>93.81666304797187</v>
@@ -6147,52 +6147,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6202,13 +6202,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
         <v>1204.759558406469</v>
@@ -6220,58 +6220,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6299,31 +6299,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J27" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>95.58405025273903</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>590.9096564684977</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6360,37 +6360,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>931.4710609784072</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C28" t="n">
-        <v>762.5348780505001</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D28" t="n">
-        <v>612.4182386381642</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E28" t="n">
-        <v>464.505145055771</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F28" t="n">
-        <v>317.6151975578605</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578605</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000584</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782955</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.741944003834</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
@@ -6402,34 +6402,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487566</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510507</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854705</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V28" t="n">
-        <v>1561.901655850195</v>
+        <v>1936.428221820188</v>
       </c>
       <c r="W28" t="n">
-        <v>1561.901655850195</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X28" t="n">
-        <v>1333.912104952177</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y28" t="n">
-        <v>1113.119525808647</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="29">
@@ -6445,16 +6445,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.77365361686</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
@@ -6466,7 +6466,7 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6542,25 +6542,25 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>244.2098454714574</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>244.2098454714574</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>739.5354516872161</v>
+        <v>1058.183521551621</v>
       </c>
       <c r="M30" t="n">
-        <v>1336.913939313768</v>
+        <v>1655.562009178173</v>
       </c>
       <c r="N30" t="n">
-        <v>1964.511902868375</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O30" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P30" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
         <v>2516.421633107662</v>
@@ -6597,37 +6597,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>788.0191461778182</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>788.0191461778182</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>637.9025067654824</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>489.9894131830891</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>343.0994656851786</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>175.9033664000584</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000584</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782955</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.741944003834</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
@@ -6639,34 +6639,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2227.3616186032</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1938.286391947398</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1707.866911086567</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1418.449741049606</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1190.460190151588</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>969.6676110080581</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6682,40 +6682,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6776,25 +6776,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1373.553594266881</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N33" t="n">
-        <v>2001.151557821488</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6834,37 +6834,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400697</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>513.8536007400697</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>484.8112968429807</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>484.8112968429807</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429807</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578605</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000584</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782955</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.741944003834</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
@@ -6876,34 +6876,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487566</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510507</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854705</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648818</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611857</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138398</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703096</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6925,22 +6925,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192596</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6976,10 +6976,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7013,25 +7013,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1336.167399417937</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N36" t="n">
-        <v>1963.765362972544</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O36" t="n">
-        <v>2515.675093211831</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3200.825397924057</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C37" t="n">
-        <v>3031.88921499615</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D37" t="n">
-        <v>2881.772575583814</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E37" t="n">
-        <v>2733.859482001421</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F37" t="n">
-        <v>2586.969534503511</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>4221.331149328841</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U37" t="n">
-        <v>4193.709186208452</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V37" t="n">
-        <v>3939.024698002565</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W37" t="n">
-        <v>3649.607527965604</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X37" t="n">
-        <v>3421.617977067587</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y37" t="n">
-        <v>3200.825397924057</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="38">
@@ -7156,7 +7156,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
         <v>1204.759558406469</v>
@@ -7171,13 +7171,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7253,28 +7253,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>214.9229991561138</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>710.2486053718725</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1307.627092998424</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>733.4550657171301</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>733.4550657171301</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D40" t="n">
-        <v>612.4182386381636</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E40" t="n">
-        <v>464.5051450557705</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F40" t="n">
-        <v>317.6151975578602</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7362,22 +7362,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1907.987318831765</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V40" t="n">
-        <v>1653.302830625878</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W40" t="n">
-        <v>1363.885660588917</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>1135.8961096909</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>915.1035305473698</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7399,31 +7399,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7432,7 +7432,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C42" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D42" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G42" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>2231.588527385791</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>2381.235169913446</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>2381.235169913446</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>2876.560776129205</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>3278.063798229818</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N42" t="n">
-        <v>3905.661761784424</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O42" t="n">
-        <v>4457.571492023711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P42" t="n">
-        <v>4457.571492023711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S42" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T42" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U42" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V42" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W42" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X42" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y42" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="43">
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>789.7592298206043</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C43" t="n">
-        <v>620.8230468926974</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D43" t="n">
-        <v>470.7064074803617</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E43" t="n">
-        <v>322.7933138979686</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F43" t="n">
-        <v>175.9033664000583</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7596,25 +7596,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2379.917379832663</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T43" t="n">
-        <v>2160.315914855604</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U43" t="n">
-        <v>1871.240688199802</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V43" t="n">
-        <v>1616.556199993915</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W43" t="n">
-        <v>1327.139029956954</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X43" t="n">
-        <v>1099.149479058937</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y43" t="n">
-        <v>971.4076946508441</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7727,16 +7727,16 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>352.5519571452614</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>949.9304447718133</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N45" t="n">
         <v>1577.52840832642</v>
@@ -7788,16 +7788,16 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>194.8007783998286</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>194.8007783998286</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>194.8007783998286</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -8057,16 +8057,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>35.91627445172509</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>342.9044714621888</v>
       </c>
       <c r="M3" t="n">
-        <v>211.0329012241559</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -8075,13 +8075,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154991</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8294,16 +8294,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>193.327346787835</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>186.4490126143851</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -8312,13 +8312,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8534,10 +8534,10 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>211.0329012241559</v>
       </c>
       <c r="L9" t="n">
-        <v>211.0329012241558</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8555,7 +8555,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.9377812015499</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23415,25 +23415,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.433962646569</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>34.97276993489206</v>
       </c>
       <c r="H13" t="n">
-        <v>85.45266000108344</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23475,7 +23475,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23655,16 +23655,16 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986277</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23709,16 +23709,16 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>186.008947440552</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.709655389037</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23889,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>114.1735436840646</v>
+        <v>45.44677382459312</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012154</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24132,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>139.9994244361424</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24180,7 +24180,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>46.45968844823057</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>62.35543909864957</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24615,13 +24615,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.524138292269</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24657,13 +24657,13 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>126.9182872993632</v>
+        <v>211.5151132204106</v>
       </c>
       <c r="W28" t="n">
-        <v>286.5229983365911</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24840,25 +24840,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.294712846224</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012183</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016447</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24897,7 +24897,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>24.02235727160496</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25077,10 +25077,10 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>119.8635921600944</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25092,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25326,13 +25326,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25365,10 +25365,10 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>191.8807364711619</v>
       </c>
       <c r="U37" t="n">
-        <v>258.8387309000586</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25551,25 +25551,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>28.78901421003559</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25602,10 +25602,10 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,7 +25836,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>92.12028678808279</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26028,7 +26028,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26037,10 +26037,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>65.54986409393069</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>671995.3843943785</v>
+        <v>671995.3843943784</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>671995.3843943785</v>
+        <v>671995.3843943784</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>671995.3843943785</v>
+        <v>671995.3843943783</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>671995.3843943784</v>
+        <v>671995.3843943783</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>671995.3843943783</v>
+        <v>671995.3843943784</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>671995.3843943784</v>
+        <v>671995.3843943783</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>671995.3843943784</v>
+        <v>671995.3843943783</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>671995.3843943784</v>
+        <v>671995.3843943783</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>671995.3843943784</v>
+        <v>671995.3843943783</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>671995.3843943784</v>
+        <v>671995.3843943783</v>
       </c>
     </row>
     <row r="16">
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>759463.6371244625</v>
+      </c>
+      <c r="C2" t="n">
+        <v>759463.6371244622</v>
+      </c>
+      <c r="D2" t="n">
         <v>759463.6371244624</v>
       </c>
-      <c r="C2" t="n">
-        <v>759463.6371244626</v>
-      </c>
-      <c r="D2" t="n">
-        <v>759463.6371244626</v>
-      </c>
       <c r="E2" t="n">
+        <v>746610.6047132548</v>
+      </c>
+      <c r="F2" t="n">
         <v>746610.6047132553</v>
       </c>
-      <c r="F2" t="n">
-        <v>746610.6047132554</v>
-      </c>
       <c r="G2" t="n">
-        <v>746610.6047132554</v>
+        <v>746610.6047132553</v>
       </c>
       <c r="H2" t="n">
         <v>746610.6047132552</v>
       </c>
       <c r="I2" t="n">
+        <v>746610.6047132552</v>
+      </c>
+      <c r="J2" t="n">
         <v>746610.6047132553</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
+        <v>746610.6047132553</v>
+      </c>
+      <c r="L2" t="n">
+        <v>746610.6047132551</v>
+      </c>
+      <c r="M2" t="n">
+        <v>746610.6047132551</v>
+      </c>
+      <c r="N2" t="n">
         <v>746610.6047132552</v>
       </c>
-      <c r="K2" t="n">
-        <v>746610.6047132554</v>
-      </c>
-      <c r="L2" t="n">
-        <v>746610.6047132555</v>
-      </c>
-      <c r="M2" t="n">
-        <v>746610.6047132554</v>
-      </c>
-      <c r="N2" t="n">
-        <v>746610.6047132553</v>
-      </c>
       <c r="O2" t="n">
-        <v>746610.6047132553</v>
+        <v>746610.6047132552</v>
       </c>
       <c r="P2" t="n">
         <v>746610.6047132553</v>
@@ -26371,25 +26371,25 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
         <v>507485.4416245457</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>6.216380545363512e-11</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099824</v>
+        <v>167605.1778099825</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26426,31 +26426,31 @@
         <v>131909.726831625</v>
       </c>
       <c r="E4" t="n">
-        <v>6897.424496707494</v>
+        <v>6897.424496707359</v>
       </c>
       <c r="F4" t="n">
-        <v>6897.42449670747</v>
+        <v>6897.42449670736</v>
       </c>
       <c r="G4" t="n">
-        <v>6897.424496707412</v>
+        <v>6897.424496707359</v>
       </c>
       <c r="H4" t="n">
+        <v>6897.424496707359</v>
+      </c>
+      <c r="I4" t="n">
+        <v>6897.424496707359</v>
+      </c>
+      <c r="J4" t="n">
+        <v>6897.424496707359</v>
+      </c>
+      <c r="K4" t="n">
         <v>6897.424496707361</v>
       </c>
-      <c r="I4" t="n">
-        <v>6897.424496707361</v>
-      </c>
-      <c r="J4" t="n">
-        <v>6897.424496707295</v>
-      </c>
-      <c r="K4" t="n">
-        <v>6897.424496707297</v>
-      </c>
       <c r="L4" t="n">
-        <v>6897.424496707314</v>
+        <v>6897.424496707359</v>
       </c>
       <c r="M4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.424496707359</v>
       </c>
       <c r="N4" t="n">
         <v>6897.42449670736</v>
@@ -26459,7 +26459,7 @@
         <v>6897.424496707359</v>
       </c>
       <c r="P4" t="n">
-        <v>6897.424496707361</v>
+        <v>6897.424496707359</v>
       </c>
     </row>
     <row r="5">
@@ -26475,7 +26475,7 @@
         <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-580135.6457229267</v>
+        <v>-580135.6457229266</v>
       </c>
       <c r="C6" t="n">
-        <v>534616.137852993</v>
+        <v>534616.1378529925</v>
       </c>
       <c r="D6" t="n">
-        <v>534616.137852993</v>
+        <v>534616.1378529925</v>
       </c>
       <c r="E6" t="n">
-        <v>131105.208768095</v>
+        <v>130757.8295137377</v>
       </c>
       <c r="F6" t="n">
-        <v>638590.6503926406</v>
+        <v>638243.2711382839</v>
       </c>
       <c r="G6" t="n">
-        <v>638590.6503926408</v>
+        <v>638243.2711382839</v>
       </c>
       <c r="H6" t="n">
-        <v>638590.6503926406</v>
+        <v>638243.2711382838</v>
       </c>
       <c r="I6" t="n">
-        <v>638590.6503926408</v>
+        <v>638243.2711382838</v>
       </c>
       <c r="J6" t="n">
-        <v>470985.4725826585</v>
+        <v>470638.0933283013</v>
       </c>
       <c r="K6" t="n">
-        <v>638590.6503926411</v>
+        <v>638243.2711382839</v>
       </c>
       <c r="L6" t="n">
-        <v>638590.6503926412</v>
+        <v>638243.2711382837</v>
       </c>
       <c r="M6" t="n">
-        <v>505983.3566637142</v>
+        <v>505635.9774093569</v>
       </c>
       <c r="N6" t="n">
-        <v>638590.6503926408</v>
+        <v>638243.2711382838</v>
       </c>
       <c r="O6" t="n">
-        <v>638590.6503926408</v>
+        <v>638243.2711382838</v>
       </c>
       <c r="P6" t="n">
-        <v>638590.6503926408</v>
+        <v>638243.2711382839</v>
       </c>
     </row>
   </sheetData>
@@ -26694,13 +26694,13 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26743,7 +26743,7 @@
         <v>934.0648921175391</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26965,19 +26965,19 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241343</v>
+        <v>433.9106082241344</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996094</v>
+        <v>532.1234559996095</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000386</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996094</v>
+        <v>532.1234559996095</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996094</v>
+        <v>532.1234559996095</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27384,13 +27384,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27399,7 +27399,7 @@
         <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27435,19 +27435,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>38.23129254060527</v>
       </c>
       <c r="V2" t="n">
-        <v>301.243090751079</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27545,19 +27545,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>128.8835299476106</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,25 +27584,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>10.20918652669698</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27615,25 +27615,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>224.0301822212051</v>
       </c>
       <c r="H5" t="n">
-        <v>220.2492909923185</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27684,7 +27684,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27776,25 +27776,25 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>49.55154957999713</v>
       </c>
       <c r="H7" t="n">
         <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27827,22 +27827,22 @@
         <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>226.2218074710138</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27855,25 +27855,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>238.7292118970956</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,22 +27903,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>183.185783550128</v>
       </c>
       <c r="U8" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28028,7 +28028,7 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
         <v>104.7965952039006</v>
@@ -28058,25 +28058,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>44.94896774584544</v>
       </c>
       <c r="S10" t="n">
         <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>97.47010949930291</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28089,25 +28089,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28140,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>1.399222618112197e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -28247,76 +28247,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>1.399222618112197e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -28341,7 +28341,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28484,76 +28484,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>1.399222618112197e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -28614,7 +28614,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -28721,76 +28721,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>1.399222618112197e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -29274,7 +29274,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>-1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -29337,13 +29337,13 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>-1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>-1.399222618112197e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -29432,76 +29432,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>-1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>-1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>-1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>-1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>-1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>-1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>-1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>-1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>-1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>-1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>-1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>-1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>-1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>-1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>-1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>-1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>-1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>-1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>-1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>-1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>-1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>-1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>-1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>-1.399222618112197e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -29517,19 +29517,19 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>-1.061081106854722e-13</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>-1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>-1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.307398633798584e-12</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>-1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -29562,25 +29562,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>-1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>-1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>-1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>-1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>-1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>-1.399222618112197e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -29669,76 +29669,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>-1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>-1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>-1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>-1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>-1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>-1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>-1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>-1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>-1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>-1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>-1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>-1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>-1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>-1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>-1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>-1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>-1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>-1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>-1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>-1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>-1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>-1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>-1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>-1.399222618112197e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -31515,7 +31515,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H8" t="n">
         <v>38.45624955336179</v>
@@ -31530,16 +31530,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N8" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P8" t="n">
         <v>539.9786897190645</v>
@@ -31551,7 +31551,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T8" t="n">
         <v>16.4376645838976</v>
@@ -31600,7 +31600,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31612,16 +31612,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O9" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q9" t="n">
         <v>256.4624964168761</v>
@@ -31679,7 +31679,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335771</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31706,7 +31706,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S10" t="n">
         <v>29.35413767523479</v>
@@ -31715,7 +31715,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,37 +31752,37 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
         <v>345.4516222043725</v>
@@ -31791,10 +31791,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31837,40 +31837,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437242</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
-        <v>250.3097721075173</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31916,28 +31916,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31946,7 +31946,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -32077,10 +32077,10 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>220.7280629601522</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473072</v>
@@ -32089,10 +32089,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>333.9544784328825</v>
       </c>
       <c r="P15" t="n">
         <v>561.8765786214698</v>
@@ -32101,7 +32101,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32311,13 +32311,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>175.6052721551106</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
@@ -32329,10 +32329,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>459.3154675919703</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,34 +32542,34 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>526.2989357561996</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,34 +32779,34 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>171.7382405950798</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33025,28 +33025,28 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>269.1634560719508</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33192,7 +33192,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175679</v>
       </c>
       <c r="N29" t="n">
         <v>981.2715114159425</v>
@@ -33262,13 +33262,13 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>276.96469254416</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>622.4211036182646</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
@@ -33277,13 +33277,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
         <v>182.6892564418561</v>
@@ -33496,7 +33496,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33505,19 +33505,19 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>339.3493584601592</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>573.8098963904297</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33654,7 +33654,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33733,28 +33733,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>573.8098963904297</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>171.7382405950817</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33973,16 +33973,16 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>258.3858318060507</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>650.2626573149953</v>
       </c>
       <c r="N39" t="n">
         <v>131.3417120833333</v>
@@ -33994,10 +33994,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34146,7 +34146,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
         <v>790.8204499236507</v>
@@ -34207,31 +34207,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>547.6926421044554</v>
+        <v>650.2626573149953</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
@@ -34447,19 +34447,19 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>397.4049812900382</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>650.2626573149953</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
@@ -34777,16 +34777,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091739</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434848</v>
+        <v>222.5037706952099</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378501</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="M3" t="n">
-        <v>577.9642335061964</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N3" t="n">
         <v>391.1970995928739</v>
@@ -34795,13 +34795,13 @@
         <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>568.1422977634694</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q3" t="n">
         <v>116.4807223308545</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>24.58388860977091</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -35014,16 +35014,16 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091739</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K6" t="n">
-        <v>186.5874962434848</v>
+        <v>379.9148430313198</v>
       </c>
       <c r="L6" t="n">
         <v>297.6803606378501</v>
       </c>
       <c r="M6" t="n">
-        <v>553.3803448964255</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N6" t="n">
         <v>391.1970995928739</v>
@@ -35032,13 +35032,13 @@
         <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>568.1422977634694</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q6" t="n">
-        <v>116.4807223308545</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R6" t="n">
-        <v>24.58388860977091</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35175,19 +35175,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N8" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P8" t="n">
         <v>308.745693963795</v>
@@ -35196,7 +35196,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,22 +35251,22 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091742</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K9" t="n">
-        <v>186.5874962434848</v>
+        <v>397.6203974676407</v>
       </c>
       <c r="L9" t="n">
-        <v>508.7132618620059</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O9" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P9" t="n">
         <v>568.1422977634695</v>
@@ -35330,13 +35330,13 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K10" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M10" t="n">
         <v>303.6179906468033</v>
@@ -35345,13 +35345,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P10" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805403</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,31 +35406,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902404</v>
@@ -35485,31 +35485,31 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992797</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
-        <v>116.3353646931871</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,19 +35567,19 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295347</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
         <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
         <v>373.2618997060454</v>
@@ -35588,7 +35588,7 @@
         <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998985</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35649,7 +35649,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367767</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
         <v>632.0799921462688</v>
@@ -35725,10 +35725,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>82.88662398579325</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
         <v>500.328895167433</v>
@@ -35737,10 +35737,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>191.358233988438</v>
       </c>
       <c r="P15" t="n">
         <v>427.9021712071395</v>
@@ -35749,7 +35749,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.0464832629535</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096351</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998985</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35904,7 +35904,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902404</v>
@@ -35959,13 +35959,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>37.76383318075158</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
@@ -35977,10 +35977,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>316.7192231475259</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.0464832629535</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096351</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998985</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,28 +36196,28 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>394.9572236728663</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,28 +36433,28 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>37.76383318074956</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36603,7 +36603,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902943</v>
       </c>
       <c r="N26" t="n">
         <v>751.8584478193516</v>
@@ -36673,28 +36673,28 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>127.0294221499325</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295322</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096348</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191313</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
-        <v>295.6317733066248</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q28" t="n">
-        <v>120.4022572998982</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,13 +36834,13 @@
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N29" t="n">
         <v>751.8584478193516</v>
@@ -36910,13 +36910,13 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>150.1270658774933</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>483.8667238383904</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36925,13 +36925,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
         <v>37.00975247789211</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295322</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096348</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191313</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
-        <v>295.6317733066248</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q31" t="n">
-        <v>120.4022572998982</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,19 +37153,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>200.7949786802851</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>431.6758624684114</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295322</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096348</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191313</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
-        <v>295.6317733066248</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q34" t="n">
-        <v>120.4022572998982</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37302,7 +37302,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37381,28 +37381,28 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>431.6758624684114</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>37.7638331807514</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37551,7 +37551,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
@@ -37621,16 +37621,16 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>120.5443928316917</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>508.128623392977</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -37642,10 +37642,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37794,7 +37794,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
         <v>559.5874541683811</v>
@@ -37855,31 +37855,31 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>405.5586081824371</v>
+        <v>508.128623392977</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38095,19 +38095,19 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>259.5635423156792</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>508.128623392977</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_10_37.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_10_37.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3548693.450496073</v>
+        <v>3550453.980798859</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12383593.4843585</v>
+        <v>12383593.48435851</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283186</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>212.8139575878577</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,13 +709,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>123.4522153987943</v>
       </c>
       <c r="T2" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>212.8139575878567</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -758,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705011</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -831,10 +831,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>37.42307009719358</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -873,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>18.36797920751891</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -901,22 +901,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>336.2482853882181</v>
       </c>
       <c r="G5" t="n">
-        <v>187.5175205517489</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,16 +946,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -964,7 +964,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>116.7550504648071</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1101,13 +1101,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>50.98074812542853</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1135,19 +1135,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>411.547702772954</v>
+        <v>174.6843553167673</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1186,16 +1186,16 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>23.47240143010579</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1299,13 +1299,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>50.98074812542855</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>56.60860467372817</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1384,7 +1384,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187863</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1426,7 +1426,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1527,13 +1527,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>41.33703994142957</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1542,7 +1542,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>130.5513683573768</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
@@ -1587,7 +1587,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1621,7 +1621,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1663,7 +1663,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1782,10 +1782,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1821,7 +1821,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>147.6895341487364</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1912,7 +1912,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -2004,25 +2004,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>121.8000472740347</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2058,7 +2058,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>166.7797097944361</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>122.6028762599951</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2256,7 +2256,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2332,7 +2332,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2487,13 +2487,13 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>103.1686991936193</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2727,10 +2727,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>55.52079624060383</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,19 +2760,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>40.6225301034174</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2955,22 +2955,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>172.0260335000785</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3043,7 +3043,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3082,7 +3082,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
@@ -3204,7 +3204,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428168</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3319,7 +3319,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3429,19 +3429,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>25.52471385612634</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3571,7 +3571,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3678,7 +3678,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3717,7 +3717,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3903,7 +3903,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3912,10 +3912,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -4149,10 +4149,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4315,10 +4315,10 @@
         <v>1330.099343395678</v>
       </c>
       <c r="E2" t="n">
-        <v>944.3110907974335</v>
+        <v>944.3110907974333</v>
       </c>
       <c r="F2" t="n">
-        <v>533.3251860078259</v>
+        <v>533.3251860078258</v>
       </c>
       <c r="G2" t="n">
         <v>117.6204357321147</v>
@@ -4327,55 +4327,55 @@
         <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816086</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872917</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923563</v>
       </c>
       <c r="N2" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O2" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P2" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q2" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R2" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S2" t="n">
         <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2228.89447953245</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U2" t="n">
-        <v>2013.930886009362</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="V2" t="n">
-        <v>1682.867998665792</v>
+        <v>1897.83159218888</v>
       </c>
       <c r="W2" t="n">
-        <v>1330.099343395678</v>
+        <v>1545.062936918766</v>
       </c>
       <c r="X2" t="n">
-        <v>1330.099343395678</v>
+        <v>1545.062936918766</v>
       </c>
       <c r="Y2" t="n">
-        <v>1330.099343395678</v>
+        <v>1545.062936918766</v>
       </c>
     </row>
     <row r="3">
@@ -4391,13 +4391,13 @@
         <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488045</v>
+        <v>448.6792471488047</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756896</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G3" t="n">
         <v>165.443278618252</v>
@@ -4406,13 +4406,13 @@
         <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J3" t="n">
-        <v>238.4273302370161</v>
+        <v>238.4273302370162</v>
       </c>
       <c r="K3" t="n">
-        <v>458.7060632252739</v>
+        <v>458.7060632252735</v>
       </c>
       <c r="L3" t="n">
         <v>1092.885047004312</v>
@@ -4424,16 +4424,16 @@
         <v>1843.432194560478</v>
       </c>
       <c r="O3" t="n">
-        <v>2175.502629736639</v>
+        <v>2175.50262973664</v>
       </c>
       <c r="P3" t="n">
-        <v>2422.685363568936</v>
+        <v>2422.685363568937</v>
       </c>
       <c r="Q3" t="n">
-        <v>2538.001278676482</v>
+        <v>2538.001278676483</v>
       </c>
       <c r="R3" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S3" t="n">
         <v>2426.617474780096</v>
@@ -4442,7 +4442,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>682.7064461033923</v>
+        <v>664.1529317523638</v>
       </c>
       <c r="C4" t="n">
-        <v>682.7064461033923</v>
+        <v>664.1529317523638</v>
       </c>
       <c r="D4" t="n">
-        <v>532.5898066910565</v>
+        <v>514.036292340028</v>
       </c>
       <c r="E4" t="n">
-        <v>384.6767131086634</v>
+        <v>366.1231987576349</v>
       </c>
       <c r="F4" t="n">
-        <v>237.7867656107531</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G4" t="n">
-        <v>199.9856847044969</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="H4" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312203</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020477</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096585</v>
+        <v>824.219460709659</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R4" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="S4" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="T4" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="U4" t="n">
-        <v>1636.446120074497</v>
+        <v>1617.892605723468</v>
       </c>
       <c r="V4" t="n">
-        <v>1381.76163186861</v>
+        <v>1363.208117517582</v>
       </c>
       <c r="W4" t="n">
-        <v>1092.344461831649</v>
+        <v>1073.790947480621</v>
       </c>
       <c r="X4" t="n">
-        <v>864.354910933632</v>
+        <v>845.8013965826035</v>
       </c>
       <c r="Y4" t="n">
-        <v>864.354910933632</v>
+        <v>845.8013965826035</v>
       </c>
     </row>
     <row r="5">
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1380.342820051861</v>
+        <v>1192.38452215733</v>
       </c>
       <c r="C5" t="n">
-        <v>1380.342820051861</v>
+        <v>1192.38452215733</v>
       </c>
       <c r="D5" t="n">
-        <v>1022.07712144511</v>
+        <v>1192.38452215733</v>
       </c>
       <c r="E5" t="n">
-        <v>1022.07712144511</v>
+        <v>806.5962695590861</v>
       </c>
       <c r="F5" t="n">
-        <v>611.0912166555029</v>
+        <v>466.9515368437143</v>
       </c>
       <c r="G5" t="n">
-        <v>421.6795797345444</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="H5" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816088</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L5" t="n">
-        <v>795.755353087292</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M5" t="n">
         <v>1220.470313923562</v>
@@ -4585,34 +4585,34 @@
         <v>2055.22848474084</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="T5" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="U5" t="n">
-        <v>2437.640120926626</v>
+        <v>2308.758267664336</v>
       </c>
       <c r="V5" t="n">
-        <v>2106.577233583055</v>
+        <v>2308.758267664336</v>
       </c>
       <c r="W5" t="n">
-        <v>1753.808578312941</v>
+        <v>1955.989612394222</v>
       </c>
       <c r="X5" t="n">
-        <v>1380.342820051861</v>
+        <v>1582.523854133142</v>
       </c>
       <c r="Y5" t="n">
-        <v>1380.342820051861</v>
+        <v>1192.38452215733</v>
       </c>
     </row>
     <row r="6">
@@ -4640,25 +4640,25 @@
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057902</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J6" t="n">
-        <v>238.4273302370161</v>
+        <v>238.4273302370162</v>
       </c>
       <c r="K6" t="n">
-        <v>614.5430248380227</v>
+        <v>614.5430248380219</v>
       </c>
       <c r="L6" t="n">
-        <v>909.2465818694943</v>
+        <v>909.2465818694938</v>
       </c>
       <c r="M6" t="n">
         <v>1272.508600828714</v>
       </c>
       <c r="N6" t="n">
-        <v>1659.79372942566</v>
+        <v>1659.793729425659</v>
       </c>
       <c r="O6" t="n">
         <v>1991.864164601821</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>783.0370443974452</v>
+        <v>665.1026499885493</v>
       </c>
       <c r="C7" t="n">
-        <v>614.1008614695384</v>
+        <v>496.1664670606424</v>
       </c>
       <c r="D7" t="n">
-        <v>463.9842220572026</v>
+        <v>346.0498276483066</v>
       </c>
       <c r="E7" t="n">
-        <v>316.0711284748095</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F7" t="n">
-        <v>169.1811809768991</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="G7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="H7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312203</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096585</v>
+        <v>824.219460709659</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R7" t="n">
-        <v>1636.446120074497</v>
+        <v>1584.950414897297</v>
       </c>
       <c r="S7" t="n">
-        <v>1636.446120074497</v>
+        <v>1584.950414897297</v>
       </c>
       <c r="T7" t="n">
-        <v>1413.467639269232</v>
+        <v>1584.950414897297</v>
       </c>
       <c r="U7" t="n">
-        <v>1413.467639269232</v>
+        <v>1584.950414897297</v>
       </c>
       <c r="V7" t="n">
-        <v>1413.467639269232</v>
+        <v>1584.950414897297</v>
       </c>
       <c r="W7" t="n">
-        <v>1413.467639269232</v>
+        <v>1295.533244860336</v>
       </c>
       <c r="X7" t="n">
-        <v>1185.478088371215</v>
+        <v>1067.543693962319</v>
       </c>
       <c r="Y7" t="n">
-        <v>964.685509227685</v>
+        <v>846.751114818789</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1263.725694231566</v>
+        <v>603.6036480119287</v>
       </c>
       <c r="C8" t="n">
-        <v>1263.725694231566</v>
+        <v>234.641131071517</v>
       </c>
       <c r="D8" t="n">
-        <v>1263.725694231566</v>
+        <v>234.641131071517</v>
       </c>
       <c r="E8" t="n">
-        <v>877.9374416333219</v>
+        <v>234.641131071517</v>
       </c>
       <c r="F8" t="n">
-        <v>466.9515368437143</v>
+        <v>227.6956303223135</v>
       </c>
       <c r="G8" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="H8" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816083</v>
       </c>
       <c r="L8" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S8" t="n">
-        <v>2437.640120926626</v>
+        <v>2437.640120926627</v>
       </c>
       <c r="T8" t="n">
-        <v>2413.93062453258</v>
+        <v>2437.640120926627</v>
       </c>
       <c r="U8" t="n">
-        <v>2413.93062453258</v>
+        <v>2437.640120926627</v>
       </c>
       <c r="V8" t="n">
-        <v>2413.93062453258</v>
+        <v>2106.577233583056</v>
       </c>
       <c r="W8" t="n">
-        <v>2413.93062453258</v>
+        <v>1753.808578312942</v>
       </c>
       <c r="X8" t="n">
-        <v>2040.4648662715</v>
+        <v>1380.342820051862</v>
       </c>
       <c r="Y8" t="n">
-        <v>1650.325534295688</v>
+        <v>990.2034880760505</v>
       </c>
     </row>
     <row r="9">
@@ -4859,52 +4859,52 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488045</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756896</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G9" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370162</v>
       </c>
       <c r="K9" t="n">
-        <v>507.2413987429757</v>
+        <v>590.2049751143488</v>
       </c>
       <c r="L9" t="n">
-        <v>801.9449557744474</v>
+        <v>884.9085321458207</v>
       </c>
       <c r="M9" t="n">
-        <v>1165.206974733667</v>
+        <v>1248.170551105041</v>
       </c>
       <c r="N9" t="n">
-        <v>1552.492103330613</v>
+        <v>1635.455679701986</v>
       </c>
       <c r="O9" t="n">
-        <v>1884.562538506775</v>
+        <v>1967.526114878148</v>
       </c>
       <c r="P9" t="n">
-        <v>2447.023413292609</v>
+        <v>2214.708848710445</v>
       </c>
       <c r="Q9" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R9" t="n">
         <v>2562.339328400155</v>
@@ -4916,7 +4916,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
@@ -4925,7 +4925,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>370.2996089082458</v>
+        <v>716.5983551657498</v>
       </c>
       <c r="C10" t="n">
-        <v>201.3634259803388</v>
+        <v>547.6621722378429</v>
       </c>
       <c r="D10" t="n">
-        <v>51.24678656800311</v>
+        <v>397.5455328255072</v>
       </c>
       <c r="E10" t="n">
-        <v>51.24678656800311</v>
+        <v>249.632439243114</v>
       </c>
       <c r="F10" t="n">
-        <v>51.24678656800311</v>
+        <v>102.7424917452037</v>
       </c>
       <c r="G10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="H10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J10" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312203</v>
       </c>
       <c r="K10" t="n">
         <v>248.4064713020476</v>
@@ -4971,7 +4971,7 @@
         <v>523.6376499693235</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096588</v>
+        <v>824.219460709659</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
@@ -4983,31 +4983,31 @@
         <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R10" t="n">
-        <v>1579.265711313156</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="S10" t="n">
-        <v>1579.265711313156</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="T10" t="n">
-        <v>1579.265711313156</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="U10" t="n">
-        <v>1290.147373816994</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="V10" t="n">
-        <v>1290.147373816994</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="W10" t="n">
-        <v>1000.730203780033</v>
+        <v>1347.028950037537</v>
       </c>
       <c r="X10" t="n">
-        <v>772.7406528820156</v>
+        <v>1119.03939913952</v>
       </c>
       <c r="Y10" t="n">
-        <v>551.9480737384855</v>
+        <v>898.2468199959895</v>
       </c>
     </row>
     <row r="11">
@@ -5026,10 +5026,10 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
@@ -5038,7 +5038,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111717</v>
@@ -5077,13 +5077,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>768.5380889459582</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C13" t="n">
-        <v>599.6019060180513</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D13" t="n">
-        <v>449.4852666057155</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E13" t="n">
-        <v>449.4852666057155</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F13" t="n">
-        <v>449.4852666057155</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
         <v>317.6151975578602</v>
@@ -5235,16 +5235,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1688.385853854706</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1398.968683817745</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1170.979132919728</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>950.1865537761979</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5260,40 +5260,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5314,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5354,22 +5354,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>692.9625378792909</v>
       </c>
       <c r="N15" t="n">
-        <v>1670.092171589158</v>
+        <v>1320.560501433898</v>
       </c>
       <c r="O15" t="n">
         <v>1859.536823237711</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5469,19 +5469,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5591,22 +5591,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>634.4644740681603</v>
       </c>
       <c r="C19" t="n">
-        <v>390.823249958218</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="D19" t="n">
-        <v>240.7066105458822</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="E19" t="n">
-        <v>240.7066105458822</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F19" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5706,19 +5706,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1808.996727182795</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1554.312238976908</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1264.895068939947</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>1036.90551804193</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>816.1129388984</v>
       </c>
     </row>
     <row r="20">
@@ -5728,28 +5728,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111715</v>
@@ -5785,19 +5785,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5971,25 +5971,25 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>198.027470314254</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6202,28 +6202,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111715</v>
@@ -6235,43 +6235,43 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6299,10 +6299,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
         <v>245.2306927803937</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1016.58045691144</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C28" t="n">
-        <v>847.644273983533</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D28" t="n">
-        <v>697.5276345711973</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="E28" t="n">
-        <v>549.6145409888042</v>
+        <v>296.7882229101285</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908938</v>
+        <v>149.8982754122182</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U28" t="n">
-        <v>1977.461080510508</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V28" t="n">
-        <v>1936.428221820188</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W28" t="n">
-        <v>1647.011051783227</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X28" t="n">
-        <v>1419.02150088521</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y28" t="n">
-        <v>1198.22892174168</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="29">
@@ -6478,7 +6478,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6548,22 +6548,22 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>1058.183521551621</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1655.562009178173</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N30" t="n">
-        <v>2283.159972732779</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O30" t="n">
-        <v>2283.159972732779</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="32">
@@ -6682,52 +6682,52 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
         <v>4405.252601474784</v>
@@ -6736,13 +6736,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6773,10 +6773,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J33" t="n">
         <v>245.2306927803937</v>
@@ -6788,13 +6788,13 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1501.8401750111</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2129.438138565707</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6852,10 +6852,10 @@
         <v>177.7213185270443</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6925,22 +6925,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6952,7 +6952,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7025,13 +7025,13 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1501.8401750111</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2129.438138565707</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>707.672526468518</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>538.7363435406111</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D37" t="n">
-        <v>388.6197041282753</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E37" t="n">
-        <v>240.7066105458822</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F37" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T37" t="n">
-        <v>2171.280006238955</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U37" t="n">
-        <v>1882.204779583153</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V37" t="n">
-        <v>1627.520291377266</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W37" t="n">
-        <v>1338.103121340305</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X37" t="n">
-        <v>1110.113570442288</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y37" t="n">
-        <v>889.3209912987577</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="38">
@@ -7162,22 +7162,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7262,13 +7262,13 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1577.52840832642</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7365,19 +7365,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7399,22 +7399,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7499,13 +7499,13 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1577.52840832642</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
         <v>2553.061288060775</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7596,25 +7596,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7736,13 +7736,13 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1577.52840832642</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
         <v>2553.061288060775</v>
@@ -7797,7 +7797,7 @@
         <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -8060,10 +8060,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>35.91627445172509</v>
+        <v>35.91627445172446</v>
       </c>
       <c r="L3" t="n">
-        <v>342.9044714621888</v>
+        <v>342.9044714621886</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8297,7 +8297,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>193.327346787835</v>
+        <v>193.3273467878341</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8318,7 +8318,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154991</v>
+        <v>20.93778120154985</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>211.0329012241559</v>
+        <v>168.7434581780633</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8549,13 +8549,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154988</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23415,13 +23415,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23430,7 +23430,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>34.97276993489206</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23475,7 +23475,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23709,7 +23709,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>138.4949402405077</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23892,25 +23892,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>45.44677382459312</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23946,7 +23946,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>119.404764594808</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24144,7 +24144,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24375,13 +24375,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>62.35543909864957</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24615,10 +24615,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>110.003342051665</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24648,19 +24648,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>211.5151132204106</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24843,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,16 +24885,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25092,7 +25092,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>57.22910392194221</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25317,19 +25317,19 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>191.8807364711619</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25566,7 +25566,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25605,7 +25605,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25791,7 +25791,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25800,10 +25800,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>65.54986409393069</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25836,7 +25836,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26037,10 +26037,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>671995.3843943784</v>
+        <v>671995.3843943783</v>
       </c>
     </row>
     <row r="7">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>671995.3843943783</v>
+        <v>671995.3843943785</v>
       </c>
     </row>
     <row r="12">
@@ -26313,22 +26313,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>759463.6371244625</v>
+        <v>759463.6371244626</v>
       </c>
       <c r="C2" t="n">
-        <v>759463.6371244622</v>
+        <v>759463.6371244623</v>
       </c>
       <c r="D2" t="n">
-        <v>759463.6371244624</v>
+        <v>759463.6371244621</v>
       </c>
       <c r="E2" t="n">
-        <v>746610.6047132548</v>
+        <v>746610.6047132552</v>
       </c>
       <c r="F2" t="n">
         <v>746610.6047132553</v>
       </c>
       <c r="G2" t="n">
-        <v>746610.6047132553</v>
+        <v>746610.6047132552</v>
       </c>
       <c r="H2" t="n">
         <v>746610.6047132552</v>
@@ -26343,10 +26343,10 @@
         <v>746610.6047132553</v>
       </c>
       <c r="L2" t="n">
-        <v>746610.6047132551</v>
+        <v>746610.6047132552</v>
       </c>
       <c r="M2" t="n">
-        <v>746610.6047132551</v>
+        <v>746610.6047132552</v>
       </c>
       <c r="N2" t="n">
         <v>746610.6047132552</v>
@@ -26355,7 +26355,7 @@
         <v>746610.6047132552</v>
       </c>
       <c r="P2" t="n">
-        <v>746610.6047132553</v>
+        <v>746610.6047132552</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.783575919</v>
+        <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1.947259988810401e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245457</v>
+        <v>507485.4416245456</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099825</v>
+        <v>167605.1778099826</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>131909.726831625</v>
+        <v>131909.7268316249</v>
       </c>
       <c r="C4" t="n">
-        <v>131909.726831625</v>
+        <v>131909.7268316249</v>
       </c>
       <c r="D4" t="n">
-        <v>131909.726831625</v>
+        <v>131909.7268316249</v>
       </c>
       <c r="E4" t="n">
         <v>6897.424496707359</v>
@@ -26432,28 +26432,28 @@
         <v>6897.42449670736</v>
       </c>
       <c r="G4" t="n">
-        <v>6897.424496707359</v>
+        <v>6897.42449670736</v>
       </c>
       <c r="H4" t="n">
-        <v>6897.424496707359</v>
+        <v>6897.42449670736</v>
       </c>
       <c r="I4" t="n">
         <v>6897.424496707359</v>
       </c>
       <c r="J4" t="n">
-        <v>6897.424496707359</v>
+        <v>6897.42449670736</v>
       </c>
       <c r="K4" t="n">
-        <v>6897.424496707361</v>
+        <v>6897.42449670736</v>
       </c>
       <c r="L4" t="n">
         <v>6897.424496707359</v>
       </c>
       <c r="M4" t="n">
+        <v>6897.42449670736</v>
+      </c>
+      <c r="N4" t="n">
         <v>6897.424496707359</v>
-      </c>
-      <c r="N4" t="n">
-        <v>6897.42449670736</v>
       </c>
       <c r="O4" t="n">
         <v>6897.424496707359</v>
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-580135.6457229266</v>
+        <v>-580135.6457229272</v>
       </c>
       <c r="C6" t="n">
-        <v>534616.1378529925</v>
+        <v>534616.1378529926</v>
       </c>
       <c r="D6" t="n">
-        <v>534616.1378529925</v>
+        <v>534616.1378529924</v>
       </c>
       <c r="E6" t="n">
-        <v>130757.8295137377</v>
+        <v>131070.4708426595</v>
       </c>
       <c r="F6" t="n">
-        <v>638243.2711382839</v>
+        <v>638555.9124672052</v>
       </c>
       <c r="G6" t="n">
-        <v>638243.2711382839</v>
+        <v>638555.9124672051</v>
       </c>
       <c r="H6" t="n">
-        <v>638243.2711382838</v>
+        <v>638555.9124672051</v>
       </c>
       <c r="I6" t="n">
-        <v>638243.2711382838</v>
+        <v>638555.9124672051</v>
       </c>
       <c r="J6" t="n">
-        <v>470638.0933283013</v>
+        <v>470950.7346572225</v>
       </c>
       <c r="K6" t="n">
-        <v>638243.2711382839</v>
+        <v>638555.9124672052</v>
       </c>
       <c r="L6" t="n">
-        <v>638243.2711382837</v>
+        <v>638555.9124672051</v>
       </c>
       <c r="M6" t="n">
-        <v>505635.9774093569</v>
+        <v>505948.6187382783</v>
       </c>
       <c r="N6" t="n">
-        <v>638243.2711382838</v>
+        <v>638555.9124672051</v>
       </c>
       <c r="O6" t="n">
-        <v>638243.2711382838</v>
+        <v>638555.9124672051</v>
       </c>
       <c r="P6" t="n">
-        <v>638243.2711382839</v>
+        <v>638555.9124672051</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175396</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.584832100039</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175396</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241344</v>
+        <v>433.9106082241343</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.584832100039</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996095</v>
+        <v>532.1234559996093</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000386</v>
+        <v>640.584832100039</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.584832100039</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996095</v>
+        <v>532.1234559996093</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>169.9198840756229</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27435,7 +27435,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>38.23129254060527</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27551,10 +27551,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>128.8835299476106</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
         <v>104.7965952039006</v>
@@ -27593,7 +27593,7 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>267.8591749136817</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27621,22 +27621,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>70.62776035349339</v>
       </c>
       <c r="G5" t="n">
-        <v>224.0301822212051</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,16 +27666,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27684,7 +27684,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27788,10 +27788,10 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>49.55154957999713</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
         <v>104.7965952039006</v>
@@ -27821,13 +27821,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>50.57682429414508</v>
       </c>
       <c r="S7" t="n">
         <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
         <v>286.2271541212006</v>
@@ -27836,7 +27836,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27855,25 +27855,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>236.8633474561867</v>
       </c>
       <c r="H8" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247047</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27906,16 +27906,16 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>183.185783550128</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28019,13 +28019,13 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>115.3258519193756</v>
       </c>
       <c r="H10" t="n">
         <v>147.2515091551288</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>44.94896774584544</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
         <v>194.6624603617375</v>
@@ -28067,7 +28067,7 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.755034742181059</v>
+        <v>3.755034742181061</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336178</v>
+        <v>38.4562495533618</v>
       </c>
       <c r="I2" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J2" t="n">
-        <v>318.7038799491899</v>
+        <v>318.7038799491901</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857145</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767382</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342227</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166597</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147053</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235313</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745096</v>
+        <v>85.567854187451</v>
       </c>
       <c r="T2" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H3" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436497</v>
       </c>
       <c r="J3" t="n">
-        <v>189.8178475575841</v>
+        <v>189.8178475575842</v>
       </c>
       <c r="K3" t="n">
-        <v>324.4289352178438</v>
+        <v>324.428935217844</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040588</v>
+        <v>509.065366204059</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762074</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R3" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997904</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000176</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31202,46 +31202,46 @@
         <v>1.684379313654579</v>
       </c>
       <c r="H4" t="n">
-        <v>14.97566335231072</v>
+        <v>14.97566335231073</v>
       </c>
       <c r="I4" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J4" t="n">
-        <v>119.0856174753787</v>
+        <v>119.0856174753788</v>
       </c>
       <c r="K4" t="n">
-        <v>195.6942511682319</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L4" t="n">
-        <v>250.4212663227908</v>
+        <v>250.4212663227909</v>
       </c>
       <c r="M4" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P4" t="n">
-        <v>203.7180217169137</v>
+        <v>203.7180217169138</v>
       </c>
       <c r="Q4" t="n">
-        <v>141.0437987097484</v>
+        <v>141.0437987097485</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523478</v>
+        <v>29.3541376752348</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069564</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024989</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I5" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J5" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857144</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342226</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T5" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H6" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
       </c>
       <c r="K6" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178439</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R6" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997903</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000174</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31442,25 +31442,25 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K7" t="n">
-        <v>195.6942511682319</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L7" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M7" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31469,16 +31469,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069563</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024988</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31521,28 +31521,28 @@
         <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J8" t="n">
         <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857144</v>
       </c>
       <c r="L8" t="n">
         <v>592.5726450767381</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342226</v>
       </c>
       <c r="O8" t="n">
         <v>632.6811099166596</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q8" t="n">
         <v>405.5015080147052</v>
@@ -31557,7 +31557,7 @@
         <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,7 +31594,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H9" t="n">
         <v>19.40387634380021</v>
@@ -31606,10 +31606,10 @@
         <v>189.8178475575841</v>
       </c>
       <c r="K9" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178439</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M9" t="n">
         <v>509.0653662040589</v>
@@ -31618,7 +31618,7 @@
         <v>522.5388116762073</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P9" t="n">
         <v>383.6539365378626</v>
@@ -31630,10 +31630,10 @@
         <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997903</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000174</v>
       </c>
       <c r="U9" t="n">
         <v>0.1321789941675764</v>
@@ -31679,19 +31679,19 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335772</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6942511682319</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L10" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M10" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N10" t="n">
         <v>257.7559726067959</v>
@@ -31706,16 +31706,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S10" t="n">
         <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069563</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024988</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -32074,25 +32074,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>333.9544784328825</v>
+        <v>687.0167715190038</v>
       </c>
       <c r="P15" t="n">
         <v>561.8765786214698</v>
@@ -32311,13 +32311,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>175.6052721551106</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
@@ -32329,7 +32329,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -33192,7 +33192,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175679</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
         <v>981.2715114159425</v>
@@ -33268,10 +33268,10 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>622.4211036182646</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>573.8098963904297</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
@@ -33280,13 +33280,13 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33508,16 +33508,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>573.8098963904297</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33654,7 +33654,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33681,7 +33681,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S35" t="n">
         <v>125.31755462929</v>
@@ -33745,16 +33745,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>573.8098963904297</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33891,7 +33891,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33982,16 +33982,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>650.2626573149953</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34128,7 +34128,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34146,7 +34146,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
         <v>790.8204499236507</v>
@@ -34219,16 +34219,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>650.2626573149953</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34456,16 +34456,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>650.2626573149953</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225038</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067507</v>
+        <v>356.806230106751</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376318</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949729</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637948</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402558</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939901</v>
+        <v>20.2916633093987</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,31 +34777,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>189.0712562313262</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K3" t="n">
-        <v>222.5037706952099</v>
+        <v>222.5037706952094</v>
       </c>
       <c r="L3" t="n">
-        <v>640.5848321000389</v>
+        <v>640.584832100039</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820407</v>
       </c>
       <c r="N3" t="n">
-        <v>391.1970995928739</v>
+        <v>391.1970995928741</v>
       </c>
       <c r="O3" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961232</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235324</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308545</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977091</v>
+        <v>24.58388860977098</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870598</v>
       </c>
       <c r="K4" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P4" t="n">
-        <v>200.9965809818072</v>
+        <v>200.9965809818073</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805409</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376316</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P5" t="n">
-        <v>308.7456939637948</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939901</v>
+        <v>20.2916633093991</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>189.0712562313262</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K6" t="n">
-        <v>379.9148430313198</v>
+        <v>379.914843031319</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378503</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N6" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O6" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667036</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870597</v>
       </c>
       <c r="K7" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M7" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35175,28 +35175,28 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L8" t="n">
         <v>356.8062301067509</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376316</v>
       </c>
       <c r="O8" t="n">
         <v>402.5828984949728</v>
       </c>
       <c r="P8" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q8" t="n">
         <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939907</v>
+        <v>20.2916633093991</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,13 +35251,13 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091745</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K9" t="n">
-        <v>397.6203974676407</v>
+        <v>355.3309544215482</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378503</v>
       </c>
       <c r="M9" t="n">
         <v>366.9313322820406</v>
@@ -35269,13 +35269,13 @@
         <v>335.4246819961231</v>
       </c>
       <c r="P9" t="n">
-        <v>568.1422977634695</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>24.58388860977097</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,7 +35330,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870597</v>
       </c>
       <c r="K10" t="n">
         <v>173.4247593423491</v>
@@ -35339,7 +35339,7 @@
         <v>278.011291583107</v>
       </c>
       <c r="M10" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N10" t="n">
         <v>301.8881449860245</v>
@@ -35722,25 +35722,25 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>191.358233988438</v>
+        <v>544.4205270745593</v>
       </c>
       <c r="P15" t="n">
         <v>427.9021712071395</v>
@@ -35904,10 +35904,10 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,13 +35959,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>37.76383318075158</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
@@ -35977,7 +35977,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36129,7 +36129,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
@@ -36603,7 +36603,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902943</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
         <v>751.8584478193516</v>
@@ -36618,7 +36618,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36840,7 +36840,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
         <v>751.8584478193516</v>
@@ -36855,7 +36855,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36916,10 +36916,10 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>483.8667238383904</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>431.6758624684114</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
@@ -36928,13 +36928,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37156,16 +37156,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>431.6758624684114</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37302,7 +37302,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37329,7 +37329,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37393,16 +37393,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>431.6758624684114</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37539,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37551,7 +37551,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
@@ -37630,16 +37630,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>508.128623392977</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37776,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37794,7 +37794,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
         <v>559.5874541683811</v>
@@ -37867,16 +37867,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>508.128623392977</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38104,16 +38104,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>508.128623392977</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
